--- a/Group8_results.xlsx
+++ b/Group8_results.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Documents\lr\MSc\airline planning\airline planning code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\airlineplanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2871160-1EAA-43A3-B535-60CB0B0C0CF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74397783-618D-402C-BB96-EFA3C6CB1366}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="10212" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new_demands" sheetId="1" r:id="rId1"/>
     <sheet name="Group8-data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,8 +68,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{230D3811-A67F-420D-B9AA-8FD02082BBA2}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -82,7 +110,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -378,12 +406,3567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A76092-8D2F-4800-9327-2E4D065F7BB7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>686.92593616209081</v>
+      </c>
+      <c r="C1">
+        <v>435.45454545454538</v>
+      </c>
+      <c r="D1">
+        <v>236.15254875538145</v>
+      </c>
+      <c r="E1">
+        <v>149.99999999999983</v>
+      </c>
+      <c r="F1">
+        <v>112.99999999999987</v>
+      </c>
+      <c r="G1">
+        <v>240.00218874560338</v>
+      </c>
+      <c r="H1">
+        <v>64.999999999999972</v>
+      </c>
+      <c r="I1">
+        <v>488.99999999999989</v>
+      </c>
+      <c r="J1">
+        <v>124.99999999999986</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>333.39183353700912</v>
+      </c>
+      <c r="M1">
+        <v>69.999999999999929</v>
+      </c>
+      <c r="N1">
+        <v>81.999999999999986</v>
+      </c>
+      <c r="O1">
+        <v>232.99999999999994</v>
+      </c>
+      <c r="P1">
+        <v>44.99999999999995</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>26.999999999999972</v>
+      </c>
+      <c r="S1">
+        <v>36.999999999999957</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>873.82454115674841</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>686.92593616209081</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>189.99999999999997</v>
+      </c>
+      <c r="D2">
+        <v>154.37564256834222</v>
+      </c>
+      <c r="E2">
+        <v>76.999999999999915</v>
+      </c>
+      <c r="F2">
+        <v>67.999999999999929</v>
+      </c>
+      <c r="G2">
+        <v>140.67366245872606</v>
+      </c>
+      <c r="H2">
+        <v>75.999999999999915</v>
+      </c>
+      <c r="I2">
+        <v>110.99999999999997</v>
+      </c>
+      <c r="J2">
+        <v>49.999999999999943</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>158.94296927154761</v>
+      </c>
+      <c r="M2">
+        <v>29.999999999999968</v>
+      </c>
+      <c r="N2">
+        <v>39.999999999999993</v>
+      </c>
+      <c r="O2">
+        <v>56.999999999999986</v>
+      </c>
+      <c r="P2">
+        <v>21.999999999999975</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>9.9999999999999893</v>
+      </c>
+      <c r="S2">
+        <v>19.999999999999979</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>355.33801750937943</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>435.45454545454538</v>
+      </c>
+      <c r="B3">
+        <v>189.99999999999997</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>129.70588235294116</v>
+      </c>
+      <c r="E3">
+        <v>36.999999999999957</v>
+      </c>
+      <c r="F3">
+        <v>29.999999999999968</v>
+      </c>
+      <c r="G3">
+        <v>108.99999999999997</v>
+      </c>
+      <c r="H3">
+        <v>42.99999999999995</v>
+      </c>
+      <c r="I3">
+        <v>79.999999999999972</v>
+      </c>
+      <c r="J3">
+        <v>48.999999999999943</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>166.2222222222222</v>
+      </c>
+      <c r="M3">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="N3">
+        <v>33.999999999999986</v>
+      </c>
+      <c r="O3">
+        <v>52.999999999999979</v>
+      </c>
+      <c r="P3">
+        <v>15.999999999999982</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>6.999999999999992</v>
+      </c>
+      <c r="S3">
+        <v>11.999999999999986</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>231.30434782608694</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>240.59829846105089</v>
+      </c>
+      <c r="B4">
+        <v>168.99999999999997</v>
+      </c>
+      <c r="C4">
+        <v>137.8125</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>33.999999999999964</v>
+      </c>
+      <c r="F4">
+        <v>31.999999999999964</v>
+      </c>
+      <c r="G4">
+        <v>268.18058337565395</v>
+      </c>
+      <c r="H4">
+        <v>27.999999999999986</v>
+      </c>
+      <c r="I4">
+        <v>52.999999999999986</v>
+      </c>
+      <c r="J4">
+        <v>45.99999999999995</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>260.18291403792387</v>
+      </c>
+      <c r="M4">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="N4">
+        <v>42.999999999999993</v>
+      </c>
+      <c r="O4">
+        <v>31.999999999999993</v>
+      </c>
+      <c r="P4">
+        <v>20.999999999999975</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>4.9999999999999947</v>
+      </c>
+      <c r="S4">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>239.22908063353532</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>149.99999999999983</v>
+      </c>
+      <c r="B5">
+        <v>76.999999999999915</v>
+      </c>
+      <c r="C5">
+        <v>36.999999999999957</v>
+      </c>
+      <c r="D5">
+        <v>33.999999999999964</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>129.99999999999986</v>
+      </c>
+      <c r="G5">
+        <v>47.999999999999943</v>
+      </c>
+      <c r="H5">
+        <v>60.999999999999929</v>
+      </c>
+      <c r="I5">
+        <v>41.99999999999995</v>
+      </c>
+      <c r="J5">
+        <v>21.999999999999975</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>61.999999999999929</v>
+      </c>
+      <c r="M5">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="N5">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="O5">
+        <v>19.999999999999979</v>
+      </c>
+      <c r="P5">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>6.999999999999992</v>
+      </c>
+      <c r="S5">
+        <v>19.999999999999979</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>341.9999999999996</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>112.99999999999987</v>
+      </c>
+      <c r="B6">
+        <v>67.999999999999929</v>
+      </c>
+      <c r="C6">
+        <v>29.999999999999968</v>
+      </c>
+      <c r="D6">
+        <v>31.999999999999964</v>
+      </c>
+      <c r="E6">
+        <v>129.99999999999986</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>46.99999999999995</v>
+      </c>
+      <c r="H6">
+        <v>69.999999999999929</v>
+      </c>
+      <c r="I6">
+        <v>27.999999999999968</v>
+      </c>
+      <c r="J6">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>53.999999999999943</v>
+      </c>
+      <c r="M6">
+        <v>10.999999999999988</v>
+      </c>
+      <c r="N6">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="O6">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="P6">
+        <v>11.999999999999986</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>4.9999999999999947</v>
+      </c>
+      <c r="S6">
+        <v>20.999999999999975</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>216.99999999999977</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>240.00218874560338</v>
+      </c>
+      <c r="B7">
+        <v>140.67366245872606</v>
+      </c>
+      <c r="C7">
+        <v>108.99999999999997</v>
+      </c>
+      <c r="D7">
+        <v>268.18058337565395</v>
+      </c>
+      <c r="E7">
+        <v>47.999999999999943</v>
+      </c>
+      <c r="F7">
+        <v>46.99999999999995</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>112.99999999999987</v>
+      </c>
+      <c r="I7">
+        <v>58.999999999999986</v>
+      </c>
+      <c r="J7">
+        <v>61.999999999999929</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>330.71452720838028</v>
+      </c>
+      <c r="M7">
+        <v>36.999999999999957</v>
+      </c>
+      <c r="N7">
+        <v>74.999999999999986</v>
+      </c>
+      <c r="O7">
+        <v>35.999999999999993</v>
+      </c>
+      <c r="P7">
+        <v>38.999999999999957</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>6.999999999999992</v>
+      </c>
+      <c r="S7">
+        <v>24.999999999999972</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>336.38391910338106</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>129.99999999999986</v>
+      </c>
+      <c r="B8">
+        <v>37.999999999999986</v>
+      </c>
+      <c r="C8">
+        <v>42.99999999999995</v>
+      </c>
+      <c r="D8">
+        <v>27.999999999999986</v>
+      </c>
+      <c r="E8">
+        <v>60.999999999999929</v>
+      </c>
+      <c r="F8">
+        <v>69.999999999999929</v>
+      </c>
+      <c r="G8">
+        <v>112.99999999999987</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>31.999999999999964</v>
+      </c>
+      <c r="J8">
+        <v>28.999999999999968</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>104.99999999999989</v>
+      </c>
+      <c r="M8">
+        <v>19.999999999999979</v>
+      </c>
+      <c r="N8">
+        <v>30.999999999999964</v>
+      </c>
+      <c r="O8">
+        <v>17.999999999999979</v>
+      </c>
+      <c r="P8">
+        <v>33.999999999999964</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>5.9999999999999929</v>
+      </c>
+      <c r="S8">
+        <v>88.999999999999957</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>143.99999999999994</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>488.99999999999989</v>
+      </c>
+      <c r="B9">
+        <v>110.99999999999997</v>
+      </c>
+      <c r="C9">
+        <v>79.999999999999972</v>
+      </c>
+      <c r="D9">
+        <v>52.999999999999986</v>
+      </c>
+      <c r="E9">
+        <v>41.99999999999995</v>
+      </c>
+      <c r="F9">
+        <v>27.999999999999968</v>
+      </c>
+      <c r="G9">
+        <v>58.999999999999986</v>
+      </c>
+      <c r="H9">
+        <v>31.999999999999964</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>40.999999999999957</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>92.999999999999986</v>
+      </c>
+      <c r="M9">
+        <v>23.999999999999972</v>
+      </c>
+      <c r="N9">
+        <v>23.999999999999993</v>
+      </c>
+      <c r="O9">
+        <v>145.99999999999997</v>
+      </c>
+      <c r="P9">
+        <v>12.999999999999986</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.999999999999986</v>
+      </c>
+      <c r="S9">
+        <v>9.9999999999999893</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>395.99999999999989</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>124.99999999999986</v>
+      </c>
+      <c r="B10">
+        <v>49.999999999999943</v>
+      </c>
+      <c r="C10">
+        <v>48.999999999999943</v>
+      </c>
+      <c r="D10">
+        <v>45.99999999999995</v>
+      </c>
+      <c r="E10">
+        <v>21.999999999999975</v>
+      </c>
+      <c r="F10">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="G10">
+        <v>61.999999999999929</v>
+      </c>
+      <c r="H10">
+        <v>28.999999999999968</v>
+      </c>
+      <c r="I10">
+        <v>40.999999999999957</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>154.99999999999983</v>
+      </c>
+      <c r="M10">
+        <v>151.99999999999994</v>
+      </c>
+      <c r="N10">
+        <v>56.999999999999936</v>
+      </c>
+      <c r="O10">
+        <v>29.999999999999968</v>
+      </c>
+      <c r="P10">
+        <v>20.999999999999975</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>7.9999999999999911</v>
+      </c>
+      <c r="S10">
+        <v>8.9999999999999893</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>309.99999999999966</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>333.39183353700912</v>
+      </c>
+      <c r="B12">
+        <v>158.94296927154761</v>
+      </c>
+      <c r="C12">
+        <v>166.2222222222222</v>
+      </c>
+      <c r="D12">
+        <v>260.18291403792387</v>
+      </c>
+      <c r="E12">
+        <v>61.999999999999929</v>
+      </c>
+      <c r="F12">
+        <v>53.999999999999943</v>
+      </c>
+      <c r="G12">
+        <v>340.08407312130032</v>
+      </c>
+      <c r="H12">
+        <v>52.499999999999979</v>
+      </c>
+      <c r="I12">
+        <v>92.999999999999986</v>
+      </c>
+      <c r="J12">
+        <v>154.99999999999983</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>81.999999999999915</v>
+      </c>
+      <c r="N12">
+        <v>174.99999999999997</v>
+      </c>
+      <c r="O12">
+        <v>62.999999999999986</v>
+      </c>
+      <c r="P12">
+        <v>50.999999999999943</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.999999999999986</v>
+      </c>
+      <c r="S12">
+        <v>27.999999999999968</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>498.23023433789223</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>69.999999999999929</v>
+      </c>
+      <c r="B13">
+        <v>29.999999999999968</v>
+      </c>
+      <c r="C13">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="D13">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="E13">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="F13">
+        <v>10.999999999999988</v>
+      </c>
+      <c r="G13">
+        <v>36.999999999999957</v>
+      </c>
+      <c r="H13">
+        <v>19.999999999999979</v>
+      </c>
+      <c r="I13">
+        <v>23.999999999999972</v>
+      </c>
+      <c r="J13">
+        <v>151.99999999999994</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>81.999999999999915</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>36.999999999999957</v>
+      </c>
+      <c r="O13">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="P13">
+        <v>14.999999999999984</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>4.9999999999999947</v>
+      </c>
+      <c r="S13">
+        <v>5.9999999999999929</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>215.99999999999977</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>81.999999999999986</v>
+      </c>
+      <c r="B14">
+        <v>39.999999999999993</v>
+      </c>
+      <c r="C14">
+        <v>33.999999999999986</v>
+      </c>
+      <c r="D14">
+        <v>42.999999999999993</v>
+      </c>
+      <c r="E14">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="F14">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="G14">
+        <v>74.999999999999986</v>
+      </c>
+      <c r="H14">
+        <v>30.999999999999964</v>
+      </c>
+      <c r="I14">
+        <v>23.999999999999993</v>
+      </c>
+      <c r="J14">
+        <v>56.999999999999936</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>174.99999999999997</v>
+      </c>
+      <c r="M14">
+        <v>36.999999999999957</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>15.999999999999996</v>
+      </c>
+      <c r="P14">
+        <v>27.999999999999968</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>3.9999999999999956</v>
+      </c>
+      <c r="S14">
+        <v>8.9999999999999893</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>185.99999999999997</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>232.99999999999994</v>
+      </c>
+      <c r="B15">
+        <v>56.999999999999986</v>
+      </c>
+      <c r="C15">
+        <v>52.999999999999979</v>
+      </c>
+      <c r="D15">
+        <v>31.999999999999993</v>
+      </c>
+      <c r="E15">
+        <v>19.999999999999979</v>
+      </c>
+      <c r="F15">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="G15">
+        <v>35.999999999999993</v>
+      </c>
+      <c r="H15">
+        <v>17.999999999999979</v>
+      </c>
+      <c r="I15">
+        <v>145.99999999999997</v>
+      </c>
+      <c r="J15">
+        <v>29.999999999999968</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>62.999999999999986</v>
+      </c>
+      <c r="M15">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="N15">
+        <v>15.999999999999996</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>7.9999999999999911</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>6.999999999999992</v>
+      </c>
+      <c r="S15">
+        <v>4.9999999999999947</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>223.99999999999994</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>44.99999999999995</v>
+      </c>
+      <c r="B16">
+        <v>21.999999999999975</v>
+      </c>
+      <c r="C16">
+        <v>15.999999999999982</v>
+      </c>
+      <c r="D16">
+        <v>20.999999999999975</v>
+      </c>
+      <c r="E16">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="F16">
+        <v>11.999999999999986</v>
+      </c>
+      <c r="G16">
+        <v>38.999999999999957</v>
+      </c>
+      <c r="H16">
+        <v>33.999999999999964</v>
+      </c>
+      <c r="I16">
+        <v>12.999999999999986</v>
+      </c>
+      <c r="J16">
+        <v>20.999999999999975</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>50.999999999999943</v>
+      </c>
+      <c r="M16">
+        <v>14.999999999999984</v>
+      </c>
+      <c r="N16">
+        <v>27.999999999999968</v>
+      </c>
+      <c r="O16">
+        <v>7.9999999999999911</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.9999999999999978</v>
+      </c>
+      <c r="S16">
+        <v>10.999999999999988</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>133.99999999999986</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>26.999999999999972</v>
+      </c>
+      <c r="B18">
+        <v>9.9999999999999893</v>
+      </c>
+      <c r="C18">
+        <v>6.999999999999992</v>
+      </c>
+      <c r="D18">
+        <v>4.9999999999999947</v>
+      </c>
+      <c r="E18">
+        <v>6.999999999999992</v>
+      </c>
+      <c r="F18">
+        <v>4.9999999999999947</v>
+      </c>
+      <c r="G18">
+        <v>6.999999999999992</v>
+      </c>
+      <c r="H18">
+        <v>5.9999999999999929</v>
+      </c>
+      <c r="I18">
+        <v>11.999999999999986</v>
+      </c>
+      <c r="J18">
+        <v>7.9999999999999911</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>12.999999999999986</v>
+      </c>
+      <c r="M18">
+        <v>4.9999999999999947</v>
+      </c>
+      <c r="N18">
+        <v>3.9999999999999956</v>
+      </c>
+      <c r="O18">
+        <v>6.999999999999992</v>
+      </c>
+      <c r="P18">
+        <v>1.9999999999999978</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.9999999999999978</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>143.99999999999983</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>36.999999999999957</v>
+      </c>
+      <c r="B19">
+        <v>19.999999999999979</v>
+      </c>
+      <c r="C19">
+        <v>11.999999999999986</v>
+      </c>
+      <c r="D19">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="E19">
+        <v>19.999999999999979</v>
+      </c>
+      <c r="F19">
+        <v>20.999999999999975</v>
+      </c>
+      <c r="G19">
+        <v>24.999999999999972</v>
+      </c>
+      <c r="H19">
+        <v>88.999999999999957</v>
+      </c>
+      <c r="I19">
+        <v>9.9999999999999893</v>
+      </c>
+      <c r="J19">
+        <v>8.9999999999999893</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>27.999999999999968</v>
+      </c>
+      <c r="M19">
+        <v>5.9999999999999929</v>
+      </c>
+      <c r="N19">
+        <v>8.9999999999999893</v>
+      </c>
+      <c r="O19">
+        <v>4.9999999999999947</v>
+      </c>
+      <c r="P19">
+        <v>10.999999999999988</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.9999999999999978</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>102.99999999999989</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>873.82454115674841</v>
+      </c>
+      <c r="B21">
+        <v>355.33801750937943</v>
+      </c>
+      <c r="C21">
+        <v>241.81818181818181</v>
+      </c>
+      <c r="D21">
+        <v>246.13977882015175</v>
+      </c>
+      <c r="E21">
+        <v>341.9999999999996</v>
+      </c>
+      <c r="F21">
+        <v>216.99999999999977</v>
+      </c>
+      <c r="G21">
+        <v>345.91408580337975</v>
+      </c>
+      <c r="H21">
+        <v>143.99999999999994</v>
+      </c>
+      <c r="I21">
+        <v>395.99999999999989</v>
+      </c>
+      <c r="J21">
+        <v>309.99999999999966</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>506.71577008376812</v>
+      </c>
+      <c r="M21">
+        <v>215.99999999999977</v>
+      </c>
+      <c r="N21">
+        <v>185.99999999999997</v>
+      </c>
+      <c r="O21">
+        <v>223.99999999999994</v>
+      </c>
+      <c r="P21">
+        <v>133.99999999999986</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>143.99999999999983</v>
+      </c>
+      <c r="S21">
+        <v>102.99999999999989</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1030.3889042431363</v>
+      </c>
+      <c r="C25">
+        <v>653.63636363636351</v>
+      </c>
+      <c r="D25">
+        <v>288.01350063891618</v>
+      </c>
+      <c r="E25">
+        <v>277.99999999999972</v>
+      </c>
+      <c r="F25">
+        <v>208.99999999999977</v>
+      </c>
+      <c r="G25">
+        <v>294.41564044501143</v>
+      </c>
+      <c r="H25">
+        <v>120.99999999999994</v>
+      </c>
+      <c r="I25">
+        <v>596.99999999999989</v>
+      </c>
+      <c r="J25">
+        <v>152.99999999999983</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>500.08775030551368</v>
+      </c>
+      <c r="M25">
+        <v>85.999999999999901</v>
+      </c>
+      <c r="N25">
+        <v>99.999999999999972</v>
+      </c>
+      <c r="O25">
+        <v>284.99999999999994</v>
+      </c>
+      <c r="P25">
+        <v>66.999999999999929</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>62.999999999999929</v>
+      </c>
+      <c r="S25">
+        <v>86.999999999999901</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1310.2821683734385</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1030.3889042431363</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>283.99999999999994</v>
+      </c>
+      <c r="D26">
+        <v>189.08732551270319</v>
+      </c>
+      <c r="E26">
+        <v>142.99999999999983</v>
+      </c>
+      <c r="F26">
+        <v>125.99999999999986</v>
+      </c>
+      <c r="G26">
+        <v>171.7314840405227</v>
+      </c>
+      <c r="H26">
+        <v>141.99999999999983</v>
+      </c>
+      <c r="I26">
+        <v>134.99999999999997</v>
+      </c>
+      <c r="J26">
+        <v>61.999999999999929</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>239.32791924796248</v>
+      </c>
+      <c r="M26">
+        <v>35.999999999999957</v>
+      </c>
+      <c r="N26">
+        <v>47.999999999999986</v>
+      </c>
+      <c r="O26">
+        <v>68.999999999999986</v>
+      </c>
+      <c r="P26">
+        <v>33.999999999999964</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>21.999999999999975</v>
+      </c>
+      <c r="S26">
+        <v>47.999999999999943</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>532.55029359374862</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>653.63636363636351</v>
+      </c>
+      <c r="B27">
+        <v>283.99999999999994</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>157.94117647058823</v>
+      </c>
+      <c r="E27">
+        <v>68.999999999999929</v>
+      </c>
+      <c r="F27">
+        <v>55.999999999999936</v>
+      </c>
+      <c r="G27">
+        <v>132.99999999999997</v>
+      </c>
+      <c r="H27">
+        <v>80.999999999999915</v>
+      </c>
+      <c r="I27">
+        <v>97.999999999999957</v>
+      </c>
+      <c r="J27">
+        <v>58.999999999999936</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>249.77777777777777</v>
+      </c>
+      <c r="M27">
+        <v>31.999999999999964</v>
+      </c>
+      <c r="N27">
+        <v>41.999999999999979</v>
+      </c>
+      <c r="O27">
+        <v>64.999999999999972</v>
+      </c>
+      <c r="P27">
+        <v>23.999999999999972</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="S27">
+        <v>27.999999999999968</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>347.82608695652175</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>293.43557184857582</v>
+      </c>
+      <c r="B28">
+        <v>206.99999999999994</v>
+      </c>
+      <c r="C28">
+        <v>167.8125</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>63.999999999999929</v>
+      </c>
+      <c r="F28">
+        <v>59.999999999999936</v>
+      </c>
+      <c r="G28">
+        <v>268.18058337565395</v>
+      </c>
+      <c r="H28">
+        <v>51.999999999999979</v>
+      </c>
+      <c r="I28">
+        <v>52.999999999999986</v>
+      </c>
+      <c r="J28">
+        <v>45.99999999999995</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>318.4328201658173</v>
+      </c>
+      <c r="M28">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="N28">
+        <v>42.999999999999993</v>
+      </c>
+      <c r="O28">
+        <v>31.999999999999993</v>
+      </c>
+      <c r="P28">
+        <v>24.999999999999972</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>12.999999999999986</v>
+      </c>
+      <c r="S28">
+        <v>31.999999999999964</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>291.56044202212115</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>277.99999999999972</v>
+      </c>
+      <c r="B29">
+        <v>142.99999999999983</v>
+      </c>
+      <c r="C29">
+        <v>68.999999999999929</v>
+      </c>
+      <c r="D29">
+        <v>63.999999999999929</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>241.99999999999974</v>
+      </c>
+      <c r="G29">
+        <v>89.999999999999901</v>
+      </c>
+      <c r="H29">
+        <v>112.99999999999987</v>
+      </c>
+      <c r="I29">
+        <v>77.999999999999915</v>
+      </c>
+      <c r="J29">
+        <v>39.999999999999957</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>113.99999999999987</v>
+      </c>
+      <c r="M29">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="N29">
+        <v>30.999999999999964</v>
+      </c>
+      <c r="O29">
+        <v>37.999999999999957</v>
+      </c>
+      <c r="P29">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="S29">
+        <v>47.999999999999943</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>635.99999999999932</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>208.99999999999977</v>
+      </c>
+      <c r="B30">
+        <v>125.99999999999986</v>
+      </c>
+      <c r="C30">
+        <v>55.999999999999936</v>
+      </c>
+      <c r="D30">
+        <v>59.999999999999936</v>
+      </c>
+      <c r="E30">
+        <v>241.99999999999974</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>86.999999999999901</v>
+      </c>
+      <c r="H30">
+        <v>129.99999999999986</v>
+      </c>
+      <c r="I30">
+        <v>51.999999999999943</v>
+      </c>
+      <c r="J30">
+        <v>30.999999999999964</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>99.999999999999886</v>
+      </c>
+      <c r="M30">
+        <v>19.999999999999979</v>
+      </c>
+      <c r="N30">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="O30">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="P30">
+        <v>21.999999999999975</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>10.999999999999988</v>
+      </c>
+      <c r="S30">
+        <v>48.999999999999943</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>402.99999999999955</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>294.41564044501143</v>
+      </c>
+      <c r="B31">
+        <v>171.7314840405227</v>
+      </c>
+      <c r="C31">
+        <v>132.99999999999997</v>
+      </c>
+      <c r="D31">
+        <v>268.18058337565395</v>
+      </c>
+      <c r="E31">
+        <v>89.999999999999901</v>
+      </c>
+      <c r="F31">
+        <v>86.999999999999901</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>210.99999999999977</v>
+      </c>
+      <c r="I31">
+        <v>58.999999999999986</v>
+      </c>
+      <c r="J31">
+        <v>61.999999999999929</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>404.41662184339071</v>
+      </c>
+      <c r="M31">
+        <v>36.999999999999957</v>
+      </c>
+      <c r="N31">
+        <v>74.999999999999986</v>
+      </c>
+      <c r="O31">
+        <v>35.999999999999993</v>
+      </c>
+      <c r="P31">
+        <v>46.99999999999995</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="S31">
+        <v>58.999999999999936</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>411.97581103672513</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>241.99999999999974</v>
+      </c>
+      <c r="B32">
+        <v>70.999999999999972</v>
+      </c>
+      <c r="C32">
+        <v>80.999999999999915</v>
+      </c>
+      <c r="D32">
+        <v>51.999999999999979</v>
+      </c>
+      <c r="E32">
+        <v>112.99999999999987</v>
+      </c>
+      <c r="F32">
+        <v>129.99999999999986</v>
+      </c>
+      <c r="G32">
+        <v>210.99999999999977</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>59.999999999999936</v>
+      </c>
+      <c r="J32">
+        <v>54.999999999999936</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>194.99999999999977</v>
+      </c>
+      <c r="M32">
+        <v>35.999999999999957</v>
+      </c>
+      <c r="N32">
+        <v>58.999999999999936</v>
+      </c>
+      <c r="O32">
+        <v>33.999999999999964</v>
+      </c>
+      <c r="P32">
+        <v>61.999999999999929</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="S32">
+        <v>206.99999999999991</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>266.99999999999989</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>596.99999999999989</v>
+      </c>
+      <c r="B33">
+        <v>134.99999999999997</v>
+      </c>
+      <c r="C33">
+        <v>97.999999999999957</v>
+      </c>
+      <c r="D33">
+        <v>52.999999999999986</v>
+      </c>
+      <c r="E33">
+        <v>77.999999999999915</v>
+      </c>
+      <c r="F33">
+        <v>51.999999999999943</v>
+      </c>
+      <c r="G33">
+        <v>58.999999999999986</v>
+      </c>
+      <c r="H33">
+        <v>59.999999999999936</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>40.999999999999957</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>112.99999999999997</v>
+      </c>
+      <c r="M33">
+        <v>23.999999999999972</v>
+      </c>
+      <c r="N33">
+        <v>23.999999999999993</v>
+      </c>
+      <c r="O33">
+        <v>145.99999999999997</v>
+      </c>
+      <c r="P33">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>27.999999999999968</v>
+      </c>
+      <c r="S33">
+        <v>21.999999999999975</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>483.99999999999989</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>152.99999999999983</v>
+      </c>
+      <c r="B34">
+        <v>61.999999999999929</v>
+      </c>
+      <c r="C34">
+        <v>58.999999999999936</v>
+      </c>
+      <c r="D34">
+        <v>45.99999999999995</v>
+      </c>
+      <c r="E34">
+        <v>39.999999999999957</v>
+      </c>
+      <c r="F34">
+        <v>30.999999999999964</v>
+      </c>
+      <c r="G34">
+        <v>61.999999999999929</v>
+      </c>
+      <c r="H34">
+        <v>54.999999999999936</v>
+      </c>
+      <c r="I34">
+        <v>40.999999999999957</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>188.9999999999998</v>
+      </c>
+      <c r="M34">
+        <v>151.99999999999994</v>
+      </c>
+      <c r="N34">
+        <v>56.999999999999936</v>
+      </c>
+      <c r="O34">
+        <v>29.999999999999968</v>
+      </c>
+      <c r="P34">
+        <v>24.999999999999972</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>17.999999999999979</v>
+      </c>
+      <c r="S34">
+        <v>20.999999999999975</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>379.9999999999996</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>500.08775030551368</v>
+      </c>
+      <c r="B36">
+        <v>239.32791924796248</v>
+      </c>
+      <c r="C36">
+        <v>249.77777777777777</v>
+      </c>
+      <c r="D36">
+        <v>318.4328201658173</v>
+      </c>
+      <c r="E36">
+        <v>113.99999999999987</v>
+      </c>
+      <c r="F36">
+        <v>99.999999999999886</v>
+      </c>
+      <c r="G36">
+        <v>415.87423798833294</v>
+      </c>
+      <c r="H36">
+        <v>97.499999999999957</v>
+      </c>
+      <c r="I36">
+        <v>112.99999999999997</v>
+      </c>
+      <c r="J36">
+        <v>188.9999999999998</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>99.999999999999886</v>
+      </c>
+      <c r="N36">
+        <v>214.99999999999994</v>
+      </c>
+      <c r="O36">
+        <v>76.999999999999986</v>
+      </c>
+      <c r="P36">
+        <v>76.999999999999915</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>30.999999999999964</v>
+      </c>
+      <c r="S36">
+        <v>65.999999999999929</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>746.41233608672997</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>85.999999999999901</v>
+      </c>
+      <c r="B37">
+        <v>35.999999999999957</v>
+      </c>
+      <c r="C37">
+        <v>31.999999999999964</v>
+      </c>
+      <c r="D37">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="E37">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="F37">
+        <v>19.999999999999979</v>
+      </c>
+      <c r="G37">
+        <v>36.999999999999957</v>
+      </c>
+      <c r="H37">
+        <v>35.999999999999957</v>
+      </c>
+      <c r="I37">
+        <v>23.999999999999972</v>
+      </c>
+      <c r="J37">
+        <v>151.99999999999994</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>99.999999999999886</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>36.999999999999957</v>
+      </c>
+      <c r="O37">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="P37">
+        <v>18.999999999999979</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>10.999999999999988</v>
+      </c>
+      <c r="S37">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>263.99999999999972</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>99.999999999999972</v>
+      </c>
+      <c r="B38">
+        <v>47.999999999999986</v>
+      </c>
+      <c r="C38">
+        <v>41.999999999999979</v>
+      </c>
+      <c r="D38">
+        <v>42.999999999999993</v>
+      </c>
+      <c r="E38">
+        <v>30.999999999999964</v>
+      </c>
+      <c r="F38">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="G38">
+        <v>74.999999999999986</v>
+      </c>
+      <c r="H38">
+        <v>58.999999999999936</v>
+      </c>
+      <c r="I38">
+        <v>23.999999999999993</v>
+      </c>
+      <c r="J38">
+        <v>56.999999999999936</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>214.99999999999994</v>
+      </c>
+      <c r="M38">
+        <v>36.999999999999957</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>15.999999999999996</v>
+      </c>
+      <c r="P38">
+        <v>33.999999999999964</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>7.9999999999999911</v>
+      </c>
+      <c r="S38">
+        <v>20.999999999999975</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>227.99999999999994</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>284.99999999999994</v>
+      </c>
+      <c r="B39">
+        <v>68.999999999999986</v>
+      </c>
+      <c r="C39">
+        <v>64.999999999999972</v>
+      </c>
+      <c r="D39">
+        <v>31.999999999999993</v>
+      </c>
+      <c r="E39">
+        <v>37.999999999999957</v>
+      </c>
+      <c r="F39">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="G39">
+        <v>35.999999999999993</v>
+      </c>
+      <c r="H39">
+        <v>33.999999999999964</v>
+      </c>
+      <c r="I39">
+        <v>145.99999999999997</v>
+      </c>
+      <c r="J39">
+        <v>29.999999999999968</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>76.999999999999986</v>
+      </c>
+      <c r="M39">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="N39">
+        <v>15.999999999999996</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>9.9999999999999893</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="S39">
+        <v>12.999999999999986</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>273.99999999999994</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>66.999999999999929</v>
+      </c>
+      <c r="B40">
+        <v>33.999999999999964</v>
+      </c>
+      <c r="C40">
+        <v>23.999999999999972</v>
+      </c>
+      <c r="D40">
+        <v>24.999999999999972</v>
+      </c>
+      <c r="E40">
+        <v>25.999999999999972</v>
+      </c>
+      <c r="F40">
+        <v>21.999999999999975</v>
+      </c>
+      <c r="G40">
+        <v>46.99999999999995</v>
+      </c>
+      <c r="H40">
+        <v>61.999999999999929</v>
+      </c>
+      <c r="I40">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="J40">
+        <v>24.999999999999972</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>76.999999999999915</v>
+      </c>
+      <c r="M40">
+        <v>18.999999999999979</v>
+      </c>
+      <c r="N40">
+        <v>33.999999999999964</v>
+      </c>
+      <c r="O40">
+        <v>9.9999999999999893</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>5.9999999999999929</v>
+      </c>
+      <c r="S40">
+        <v>26.999999999999972</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>201.99999999999977</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>62.999999999999929</v>
+      </c>
+      <c r="B42">
+        <v>21.999999999999975</v>
+      </c>
+      <c r="C42">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="D42">
+        <v>12.999999999999986</v>
+      </c>
+      <c r="E42">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="F42">
+        <v>10.999999999999988</v>
+      </c>
+      <c r="G42">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="H42">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="I42">
+        <v>27.999999999999968</v>
+      </c>
+      <c r="J42">
+        <v>17.999999999999979</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>30.999999999999964</v>
+      </c>
+      <c r="M42">
+        <v>10.999999999999988</v>
+      </c>
+      <c r="N42">
+        <v>7.9999999999999911</v>
+      </c>
+      <c r="O42">
+        <v>16.999999999999982</v>
+      </c>
+      <c r="P42">
+        <v>5.9999999999999929</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>5.9999999999999929</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>335.9999999999996</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>86.999999999999901</v>
+      </c>
+      <c r="B43">
+        <v>47.999999999999943</v>
+      </c>
+      <c r="C43">
+        <v>27.999999999999968</v>
+      </c>
+      <c r="D43">
+        <v>31.999999999999964</v>
+      </c>
+      <c r="E43">
+        <v>47.999999999999943</v>
+      </c>
+      <c r="F43">
+        <v>48.999999999999943</v>
+      </c>
+      <c r="G43">
+        <v>58.999999999999936</v>
+      </c>
+      <c r="H43">
+        <v>206.99999999999991</v>
+      </c>
+      <c r="I43">
+        <v>21.999999999999975</v>
+      </c>
+      <c r="J43">
+        <v>20.999999999999975</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>65.999999999999929</v>
+      </c>
+      <c r="M43">
+        <v>13.999999999999984</v>
+      </c>
+      <c r="N43">
+        <v>20.999999999999975</v>
+      </c>
+      <c r="O43">
+        <v>12.999999999999986</v>
+      </c>
+      <c r="P43">
+        <v>26.999999999999972</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>5.9999999999999929</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>240.99999999999974</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1310.2821683734385</v>
+      </c>
+      <c r="B45">
+        <v>532.55029359374862</v>
+      </c>
+      <c r="C45">
+        <v>363.63636363636363</v>
+      </c>
+      <c r="D45">
+        <v>299.98285543705992</v>
+      </c>
+      <c r="E45">
+        <v>635.99999999999932</v>
+      </c>
+      <c r="F45">
+        <v>402.99999999999955</v>
+      </c>
+      <c r="G45">
+        <v>423.64758823110554</v>
+      </c>
+      <c r="H45">
+        <v>266.99999999999989</v>
+      </c>
+      <c r="I45">
+        <v>483.99999999999989</v>
+      </c>
+      <c r="J45">
+        <v>379.9999999999996</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>759.12474918916575</v>
+      </c>
+      <c r="M45">
+        <v>263.99999999999972</v>
+      </c>
+      <c r="N45">
+        <v>227.99999999999994</v>
+      </c>
+      <c r="O45">
+        <v>273.99999999999994</v>
+      </c>
+      <c r="P45">
+        <v>201.99999999999977</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>335.9999999999996</v>
+      </c>
+      <c r="S45">
+        <v>240.99999999999974</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -392,13 +3975,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88199124-0503-4813-9C0A-CED251012E4C}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -472,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -546,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -620,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -694,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -768,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -842,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -916,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -990,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1064,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1138,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1212,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1286,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1360,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1434,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1508,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1582,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1656,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1730,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1804,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1878,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1952,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2026,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2100,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>

--- a/Group8_results.xlsx
+++ b/Group8_results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\airlineplanning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Koen/Documents/GitHub/airlineplanning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74397783-618D-402C-BB96-EFA3C6CB1366}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF64277-9B46-8A40-8244-131B2B4D196D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="10212" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="10220" activeTab="2" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
   </bookViews>
   <sheets>
     <sheet name="new_demands" sheetId="1" r:id="rId1"/>
     <sheet name="Group8-data" sheetId="2" r:id="rId2"/>
+    <sheet name="Demands2022" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -408,13 +409,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A76092-8D2F-4800-9327-2E4D065F7BB7}">
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -488,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>686.92593616209081</v>
       </c>
@@ -562,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>435.45454545454538</v>
       </c>
@@ -636,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>240.59829846105089</v>
       </c>
@@ -710,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>149.99999999999983</v>
       </c>
@@ -784,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>112.99999999999987</v>
       </c>
@@ -858,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>240.00218874560338</v>
       </c>
@@ -932,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>129.99999999999986</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>488.99999999999989</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>124.99999999999986</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>333.39183353700912</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>69.999999999999929</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>81.999999999999986</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>232.99999999999994</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>44.99999999999995</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>26.999999999999972</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>36.999999999999957</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>873.82454115674841</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1030.3889042431363</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>653.63636363636351</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>293.43557184857582</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>277.99999999999972</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>208.99999999999977</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>294.41564044501143</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>241.99999999999974</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>596.99999999999989</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>152.99999999999983</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>500.08775030551368</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>85.999999999999901</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>99.999999999999972</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>284.99999999999994</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>66.999999999999929</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>62.999999999999929</v>
       </c>
@@ -3522,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>86.999999999999901</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1310.2821683734385</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3979,9 +3980,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4277,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4499,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4721,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -5017,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -5313,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -5535,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -5609,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -5760,4 +5761,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910AB63E-1E56-3C47-80AE-DD06BF76CDE9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Group8_results.xlsx
+++ b/Group8_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Koen/Documents/GitHub/airlineplanning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF64277-9B46-8A40-8244-131B2B4D196D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4F5961-BF43-9442-936F-319861A12354}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="10220" activeTab="2" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
   </bookViews>
@@ -25,7 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,13 +33,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,9 +419,9 @@
       <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1">
         <v>0</v>
       </c>
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>686.92593616209081</v>
       </c>
@@ -563,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>435.45454545454538</v>
       </c>
@@ -637,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>240.59829846105089</v>
       </c>
@@ -711,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>149.99999999999983</v>
       </c>
@@ -785,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>112.99999999999987</v>
       </c>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>240.00218874560338</v>
       </c>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>129.99999999999986</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>488.99999999999989</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>124.99999999999986</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>333.39183353700912</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>69.999999999999929</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>81.999999999999986</v>
       </c>
@@ -1451,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>232.99999999999994</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>44.99999999999995</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>26.999999999999972</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>36.999999999999957</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>873.82454115674841</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2265,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>1030.3889042431363</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>653.63636363636351</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>293.43557184857582</v>
       </c>
@@ -2487,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24">
       <c r="A29">
         <v>277.99999999999972</v>
       </c>
@@ -2561,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24">
       <c r="A30">
         <v>208.99999999999977</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>294.41564044501143</v>
       </c>
@@ -2709,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24">
       <c r="A32">
         <v>241.99999999999974</v>
       </c>
@@ -2783,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24">
       <c r="A33">
         <v>596.99999999999989</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24">
       <c r="A34">
         <v>152.99999999999983</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24">
       <c r="A36">
         <v>500.08775030551368</v>
       </c>
@@ -3079,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24">
       <c r="A37">
         <v>85.999999999999901</v>
       </c>
@@ -3153,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24">
       <c r="A38">
         <v>99.999999999999972</v>
       </c>
@@ -3227,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24">
       <c r="A39">
         <v>284.99999999999994</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24">
       <c r="A40">
         <v>66.999999999999929</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3449,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24">
       <c r="A42">
         <v>62.999999999999929</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24">
       <c r="A43">
         <v>86.999999999999901</v>
       </c>
@@ -3597,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3671,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24">
       <c r="A45">
         <v>1310.2821683734385</v>
       </c>
@@ -3745,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3980,9 +3986,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1">
         <v>0</v>
       </c>
@@ -4056,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4130,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>10</v>
       </c>
@@ -4204,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4352,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4426,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4574,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4648,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4722,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4796,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4870,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4944,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>0</v>
       </c>
@@ -5018,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>0</v>
       </c>
@@ -5092,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>0</v>
       </c>
@@ -5166,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>0</v>
       </c>
@@ -5314,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>0</v>
       </c>
@@ -5388,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5462,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>0</v>
       </c>
@@ -5536,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>0</v>
       </c>
@@ -5610,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>0</v>
       </c>
@@ -5684,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>0</v>
       </c>
@@ -5765,12 +5771,1791 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910AB63E-1E56-3C47-80AE-DD06BF76CDE9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>777</v>
+      </c>
+      <c r="C1" s="1">
+        <v>523</v>
+      </c>
+      <c r="D1" s="1">
+        <v>259</v>
+      </c>
+      <c r="E1" s="1">
+        <v>193</v>
+      </c>
+      <c r="F1" s="1">
+        <v>153</v>
+      </c>
+      <c r="G1" s="1">
+        <v>242</v>
+      </c>
+      <c r="H1" s="1">
+        <v>168</v>
+      </c>
+      <c r="I1" s="1">
+        <v>464</v>
+      </c>
+      <c r="J1" s="1">
+        <v>129</v>
+      </c>
+      <c r="K1" s="1">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1">
+        <v>368</v>
+      </c>
+      <c r="M1" s="1">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1">
+        <v>93</v>
+      </c>
+      <c r="O1" s="1">
+        <v>246</v>
+      </c>
+      <c r="P1" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1">
+        <v>64</v>
+      </c>
+      <c r="T1" s="1">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1">
+        <v>972</v>
+      </c>
+      <c r="V1" s="1">
+        <v>363</v>
+      </c>
+      <c r="W1" s="1">
+        <v>408</v>
+      </c>
+      <c r="X1" s="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1">
+        <v>777</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>236</v>
+      </c>
+      <c r="D2" s="1">
+        <v>191</v>
+      </c>
+      <c r="E2" s="1">
+        <v>112</v>
+      </c>
+      <c r="F2" s="1">
+        <v>102</v>
+      </c>
+      <c r="G2" s="1">
+        <v>168</v>
+      </c>
+      <c r="H2" s="1">
+        <v>110</v>
+      </c>
+      <c r="I2" s="1">
+        <v>123</v>
+      </c>
+      <c r="J2" s="1">
+        <v>59</v>
+      </c>
+      <c r="K2" s="1">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1">
+        <v>202</v>
+      </c>
+      <c r="M2" s="1">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1">
+        <v>71</v>
+      </c>
+      <c r="P2" s="1">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>8</v>
+      </c>
+      <c r="R2" s="1">
+        <v>19</v>
+      </c>
+      <c r="S2" s="1">
+        <v>39</v>
+      </c>
+      <c r="T2" s="1">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1">
+        <v>448</v>
+      </c>
+      <c r="V2" s="1">
+        <v>170</v>
+      </c>
+      <c r="W2" s="1">
+        <v>191</v>
+      </c>
+      <c r="X2" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1">
+        <v>523</v>
+      </c>
+      <c r="B3" s="1">
+        <v>236</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>172</v>
+      </c>
+      <c r="E3" s="1">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1">
+        <v>125</v>
+      </c>
+      <c r="H3" s="1">
+        <v>66</v>
+      </c>
+      <c r="I3" s="1">
+        <v>93</v>
+      </c>
+      <c r="J3" s="1">
+        <v>59</v>
+      </c>
+      <c r="K3" s="1">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1">
+        <v>223</v>
+      </c>
+      <c r="M3" s="1">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1">
+        <v>45</v>
+      </c>
+      <c r="O3" s="1">
+        <v>68</v>
+      </c>
+      <c r="P3" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1">
+        <v>15</v>
+      </c>
+      <c r="S3" s="1">
+        <v>24</v>
+      </c>
+      <c r="T3" s="1">
+        <v>7</v>
+      </c>
+      <c r="U3" s="1">
+        <v>323</v>
+      </c>
+      <c r="V3" s="1">
+        <v>123</v>
+      </c>
+      <c r="W3" s="1">
+        <v>140</v>
+      </c>
+      <c r="X3" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="1">
+        <v>259</v>
+      </c>
+      <c r="B4" s="1">
+        <v>191</v>
+      </c>
+      <c r="C4" s="1">
+        <v>172</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>54</v>
+      </c>
+      <c r="F4" s="1">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1">
+        <v>276</v>
+      </c>
+      <c r="H4" s="1">
+        <v>85</v>
+      </c>
+      <c r="I4" s="1">
+        <v>58</v>
+      </c>
+      <c r="J4" s="1">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1">
+        <v>283</v>
+      </c>
+      <c r="M4" s="1">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1">
+        <v>52</v>
+      </c>
+      <c r="O4" s="1">
+        <v>39</v>
+      </c>
+      <c r="P4" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>6</v>
+      </c>
+      <c r="R4" s="1">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1">
+        <v>28</v>
+      </c>
+      <c r="T4" s="1">
+        <v>7</v>
+      </c>
+      <c r="U4" s="1">
+        <v>280</v>
+      </c>
+      <c r="V4" s="1">
+        <v>108</v>
+      </c>
+      <c r="W4" s="1">
+        <v>124</v>
+      </c>
+      <c r="X4" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1">
+        <v>193</v>
+      </c>
+      <c r="B5" s="1">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>192</v>
+      </c>
+      <c r="G5" s="1">
+        <v>71</v>
+      </c>
+      <c r="H5" s="1">
+        <v>90</v>
+      </c>
+      <c r="I5" s="1">
+        <v>63</v>
+      </c>
+      <c r="J5" s="1">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1">
+        <v>94</v>
+      </c>
+      <c r="L5" s="1">
+        <v>86</v>
+      </c>
+      <c r="M5" s="1">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1">
+        <v>28</v>
+      </c>
+      <c r="O5" s="1">
+        <v>33</v>
+      </c>
+      <c r="P5" s="1">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>8</v>
+      </c>
+      <c r="R5" s="1">
+        <v>14</v>
+      </c>
+      <c r="S5" s="1">
+        <v>40</v>
+      </c>
+      <c r="T5" s="1">
+        <v>21</v>
+      </c>
+      <c r="U5" s="1">
+        <v>455</v>
+      </c>
+      <c r="V5" s="1">
+        <v>171</v>
+      </c>
+      <c r="W5" s="1">
+        <v>185</v>
+      </c>
+      <c r="X5" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="1">
+        <v>153</v>
+      </c>
+      <c r="B6" s="1">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1">
+        <v>192</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>73</v>
+      </c>
+      <c r="H6" s="1">
+        <v>106</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44</v>
+      </c>
+      <c r="J6" s="1">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1">
+        <v>78</v>
+      </c>
+      <c r="M6" s="1">
+        <v>19</v>
+      </c>
+      <c r="N6" s="1">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1">
+        <v>25</v>
+      </c>
+      <c r="P6" s="1">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>7</v>
+      </c>
+      <c r="R6" s="1">
+        <v>10</v>
+      </c>
+      <c r="S6" s="1">
+        <v>43</v>
+      </c>
+      <c r="T6" s="1">
+        <v>11</v>
+      </c>
+      <c r="U6" s="1">
+        <v>307</v>
+      </c>
+      <c r="V6" s="1">
+        <v>117</v>
+      </c>
+      <c r="W6" s="1">
+        <v>129</v>
+      </c>
+      <c r="X6" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="1">
+        <v>242</v>
+      </c>
+      <c r="B7" s="1">
+        <v>168</v>
+      </c>
+      <c r="C7" s="1">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1">
+        <v>276</v>
+      </c>
+      <c r="E7" s="1">
+        <v>71</v>
+      </c>
+      <c r="F7" s="1">
+        <v>73</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>160</v>
+      </c>
+      <c r="I7" s="1">
+        <v>62</v>
+      </c>
+      <c r="J7" s="1">
+        <v>65</v>
+      </c>
+      <c r="K7" s="1">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1">
+        <v>351</v>
+      </c>
+      <c r="M7" s="1">
+        <v>42</v>
+      </c>
+      <c r="N7" s="1">
+        <v>84</v>
+      </c>
+      <c r="O7" s="1">
+        <v>41</v>
+      </c>
+      <c r="P7" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>11</v>
+      </c>
+      <c r="R7" s="1">
+        <v>15</v>
+      </c>
+      <c r="S7" s="1">
+        <v>49</v>
+      </c>
+      <c r="T7" s="1">
+        <v>9</v>
+      </c>
+      <c r="U7" s="1">
+        <v>371</v>
+      </c>
+      <c r="V7" s="1">
+        <v>145</v>
+      </c>
+      <c r="W7" s="1">
+        <v>167</v>
+      </c>
+      <c r="X7" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="1">
+        <v>168</v>
+      </c>
+      <c r="B8" s="1">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1">
+        <v>85</v>
+      </c>
+      <c r="E8" s="1">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1">
+        <v>106</v>
+      </c>
+      <c r="G8" s="1">
+        <v>160</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1">
+        <v>45</v>
+      </c>
+      <c r="K8" s="1">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1">
+        <v>142</v>
+      </c>
+      <c r="M8" s="1">
+        <v>31</v>
+      </c>
+      <c r="N8" s="1">
+        <v>52</v>
+      </c>
+      <c r="O8" s="1">
+        <v>30</v>
+      </c>
+      <c r="P8" s="1">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>16</v>
+      </c>
+      <c r="R8" s="1">
+        <v>13</v>
+      </c>
+      <c r="S8" s="1">
+        <v>160</v>
+      </c>
+      <c r="T8" s="1">
+        <v>11</v>
+      </c>
+      <c r="U8" s="1">
+        <v>384</v>
+      </c>
+      <c r="V8" s="1">
+        <v>152</v>
+      </c>
+      <c r="W8" s="1">
+        <v>173</v>
+      </c>
+      <c r="X8" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1">
+        <v>464</v>
+      </c>
+      <c r="B9" s="1">
+        <v>123</v>
+      </c>
+      <c r="C9" s="1">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1">
+        <v>62</v>
+      </c>
+      <c r="H9" s="1">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>44</v>
+      </c>
+      <c r="K9" s="1">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <v>27</v>
+      </c>
+      <c r="N9" s="1">
+        <v>28</v>
+      </c>
+      <c r="O9" s="1">
+        <v>157</v>
+      </c>
+      <c r="P9" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>24</v>
+      </c>
+      <c r="S9" s="1">
+        <v>20</v>
+      </c>
+      <c r="T9" s="1">
+        <v>9</v>
+      </c>
+      <c r="U9" s="1">
+        <v>411</v>
+      </c>
+      <c r="V9" s="1">
+        <v>150</v>
+      </c>
+      <c r="W9" s="1">
+        <v>167</v>
+      </c>
+      <c r="X9" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1">
+        <v>129</v>
+      </c>
+      <c r="B10" s="1">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
+        <v>65</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>11</v>
+      </c>
+      <c r="L10" s="1">
+        <v>164</v>
+      </c>
+      <c r="M10" s="1">
+        <v>160</v>
+      </c>
+      <c r="N10" s="1">
+        <v>65</v>
+      </c>
+      <c r="O10" s="1">
+        <v>36</v>
+      </c>
+      <c r="P10" s="1">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>6</v>
+      </c>
+      <c r="R10" s="1">
+        <v>16</v>
+      </c>
+      <c r="S10" s="1">
+        <v>18</v>
+      </c>
+      <c r="T10" s="1">
+        <v>6</v>
+      </c>
+      <c r="U10" s="1">
+        <v>329</v>
+      </c>
+      <c r="V10" s="1">
+        <v>131</v>
+      </c>
+      <c r="W10" s="1">
+        <v>157</v>
+      </c>
+      <c r="X10" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="1">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
+        <v>94</v>
+      </c>
+      <c r="F11" s="1">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>26</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1">
+        <v>9</v>
+      </c>
+      <c r="O11" s="1">
+        <v>11</v>
+      </c>
+      <c r="P11" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>5</v>
+      </c>
+      <c r="S11" s="1">
+        <v>11</v>
+      </c>
+      <c r="T11" s="1">
+        <v>12</v>
+      </c>
+      <c r="U11" s="1">
+        <v>184</v>
+      </c>
+      <c r="V11" s="1">
+        <v>68</v>
+      </c>
+      <c r="W11" s="1">
+        <v>72</v>
+      </c>
+      <c r="X11" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="1">
+        <v>368</v>
+      </c>
+      <c r="B12" s="1">
+        <v>202</v>
+      </c>
+      <c r="C12" s="1">
+        <v>223</v>
+      </c>
+      <c r="D12" s="1">
+        <v>283</v>
+      </c>
+      <c r="E12" s="1">
+        <v>86</v>
+      </c>
+      <c r="F12" s="1">
+        <v>78</v>
+      </c>
+      <c r="G12" s="1">
+        <v>351</v>
+      </c>
+      <c r="H12" s="1">
+        <v>142</v>
+      </c>
+      <c r="I12" s="1">
+        <v>100</v>
+      </c>
+      <c r="J12" s="1">
+        <v>164</v>
+      </c>
+      <c r="K12" s="1">
+        <v>26</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>92</v>
+      </c>
+      <c r="N12" s="1">
+        <v>198</v>
+      </c>
+      <c r="O12" s="1">
+        <v>74</v>
+      </c>
+      <c r="P12" s="1">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>14</v>
+      </c>
+      <c r="R12" s="1">
+        <v>25</v>
+      </c>
+      <c r="S12" s="1">
+        <v>51</v>
+      </c>
+      <c r="T12" s="1">
+        <v>12</v>
+      </c>
+      <c r="U12" s="1">
+        <v>578</v>
+      </c>
+      <c r="V12" s="1">
+        <v>227</v>
+      </c>
+      <c r="W12" s="1">
+        <v>264</v>
+      </c>
+      <c r="X12" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="1">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1">
+        <v>31</v>
+      </c>
+      <c r="I13" s="1">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1">
+        <v>160</v>
+      </c>
+      <c r="K13" s="1">
+        <v>7</v>
+      </c>
+      <c r="L13" s="1">
+        <v>92</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>45</v>
+      </c>
+      <c r="O13" s="1">
+        <v>21</v>
+      </c>
+      <c r="P13" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>4</v>
+      </c>
+      <c r="R13" s="1">
+        <v>11</v>
+      </c>
+      <c r="S13" s="1">
+        <v>13</v>
+      </c>
+      <c r="T13" s="1">
+        <v>4</v>
+      </c>
+      <c r="U13" s="1">
+        <v>241</v>
+      </c>
+      <c r="V13" s="1">
+        <v>98</v>
+      </c>
+      <c r="W13" s="1">
+        <v>119</v>
+      </c>
+      <c r="X13" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="1">
+        <v>93</v>
+      </c>
+      <c r="B14" s="1">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1">
+        <v>84</v>
+      </c>
+      <c r="H14" s="1">
+        <v>52</v>
+      </c>
+      <c r="I14" s="1">
+        <v>28</v>
+      </c>
+      <c r="J14" s="1">
+        <v>65</v>
+      </c>
+      <c r="K14" s="1">
+        <v>9</v>
+      </c>
+      <c r="L14" s="1">
+        <v>198</v>
+      </c>
+      <c r="M14" s="1">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>20</v>
+      </c>
+      <c r="P14" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>6</v>
+      </c>
+      <c r="R14" s="1">
+        <v>9</v>
+      </c>
+      <c r="S14" s="1">
+        <v>20</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4</v>
+      </c>
+      <c r="U14" s="1">
+        <v>217</v>
+      </c>
+      <c r="V14" s="1">
+        <v>87</v>
+      </c>
+      <c r="W14" s="1">
+        <v>103</v>
+      </c>
+      <c r="X14" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="1">
+        <v>246</v>
+      </c>
+      <c r="B15" s="1">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1">
+        <v>41</v>
+      </c>
+      <c r="H15" s="1">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1">
+        <v>157</v>
+      </c>
+      <c r="J15" s="1">
+        <v>36</v>
+      </c>
+      <c r="K15" s="1">
+        <v>11</v>
+      </c>
+      <c r="L15" s="1">
+        <v>74</v>
+      </c>
+      <c r="M15" s="1">
+        <v>21</v>
+      </c>
+      <c r="N15" s="1">
+        <v>20</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>3</v>
+      </c>
+      <c r="R15" s="1">
+        <v>16</v>
+      </c>
+      <c r="S15" s="1">
+        <v>12</v>
+      </c>
+      <c r="T15" s="1">
+        <v>5</v>
+      </c>
+      <c r="U15" s="1">
+        <v>256</v>
+      </c>
+      <c r="V15" s="1">
+        <v>95</v>
+      </c>
+      <c r="W15" s="1">
+        <v>107</v>
+      </c>
+      <c r="X15" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="1">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1">
+        <v>56</v>
+      </c>
+      <c r="I16" s="1">
+        <v>18</v>
+      </c>
+      <c r="J16" s="1">
+        <v>28</v>
+      </c>
+      <c r="K16" s="1">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1">
+        <v>69</v>
+      </c>
+      <c r="M16" s="1">
+        <v>21</v>
+      </c>
+      <c r="N16" s="1">
+        <v>40</v>
+      </c>
+      <c r="O16" s="1">
+        <v>12</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>11</v>
+      </c>
+      <c r="R16" s="1">
+        <v>6</v>
+      </c>
+      <c r="S16" s="1">
+        <v>25</v>
+      </c>
+      <c r="T16" s="1">
+        <v>4</v>
+      </c>
+      <c r="U16" s="1">
+        <v>180</v>
+      </c>
+      <c r="V16" s="1">
+        <v>74</v>
+      </c>
+      <c r="W16" s="1">
+        <v>87</v>
+      </c>
+      <c r="X16" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5</v>
+      </c>
+      <c r="J17" s="1">
+        <v>6</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>14</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4</v>
+      </c>
+      <c r="N17" s="1">
+        <v>6</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>10</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>57</v>
+      </c>
+      <c r="V17" s="1">
+        <v>23</v>
+      </c>
+      <c r="W17" s="1">
+        <v>27</v>
+      </c>
+      <c r="X17" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="1">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1">
+        <v>24</v>
+      </c>
+      <c r="J18" s="1">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>25</v>
+      </c>
+      <c r="M18" s="1">
+        <v>11</v>
+      </c>
+      <c r="N18" s="1">
+        <v>9</v>
+      </c>
+      <c r="O18" s="1">
+        <v>16</v>
+      </c>
+      <c r="P18" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>6</v>
+      </c>
+      <c r="T18" s="1">
+        <v>3</v>
+      </c>
+      <c r="U18" s="1">
+        <v>250</v>
+      </c>
+      <c r="V18" s="1">
+        <v>87</v>
+      </c>
+      <c r="W18" s="1">
+        <v>100</v>
+      </c>
+      <c r="X18" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="1">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1">
+        <v>43</v>
+      </c>
+      <c r="G19" s="1">
+        <v>49</v>
+      </c>
+      <c r="H19" s="1">
+        <v>160</v>
+      </c>
+      <c r="I19" s="1">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1">
+        <v>11</v>
+      </c>
+      <c r="L19" s="1">
+        <v>51</v>
+      </c>
+      <c r="M19" s="1">
+        <v>13</v>
+      </c>
+      <c r="N19" s="1">
+        <v>20</v>
+      </c>
+      <c r="O19" s="1">
+        <v>12</v>
+      </c>
+      <c r="P19" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>10</v>
+      </c>
+      <c r="R19" s="1">
+        <v>6</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>5</v>
+      </c>
+      <c r="U19" s="1">
+        <v>182</v>
+      </c>
+      <c r="V19" s="1">
+        <v>73</v>
+      </c>
+      <c r="W19" s="1">
+        <v>82</v>
+      </c>
+      <c r="X19" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="1">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1">
+        <v>9</v>
+      </c>
+      <c r="J20" s="1">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1">
+        <v>12</v>
+      </c>
+      <c r="L20" s="1">
+        <v>12</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1">
+        <v>4</v>
+      </c>
+      <c r="O20" s="1">
+        <v>5</v>
+      </c>
+      <c r="P20" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>3</v>
+      </c>
+      <c r="S20" s="1">
+        <v>5</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>136</v>
+      </c>
+      <c r="V20" s="1">
+        <v>50</v>
+      </c>
+      <c r="W20" s="1">
+        <v>51</v>
+      </c>
+      <c r="X20" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="1">
+        <v>972</v>
+      </c>
+      <c r="B21" s="1">
+        <v>448</v>
+      </c>
+      <c r="C21" s="1">
+        <v>323</v>
+      </c>
+      <c r="D21" s="1">
+        <v>280</v>
+      </c>
+      <c r="E21" s="1">
+        <v>455</v>
+      </c>
+      <c r="F21" s="1">
+        <v>307</v>
+      </c>
+      <c r="G21" s="1">
+        <v>371</v>
+      </c>
+      <c r="H21" s="1">
+        <v>384</v>
+      </c>
+      <c r="I21" s="1">
+        <v>411</v>
+      </c>
+      <c r="J21" s="1">
+        <v>329</v>
+      </c>
+      <c r="K21" s="1">
+        <v>184</v>
+      </c>
+      <c r="L21" s="1">
+        <v>578</v>
+      </c>
+      <c r="M21" s="1">
+        <v>241</v>
+      </c>
+      <c r="N21" s="1">
+        <v>217</v>
+      </c>
+      <c r="O21" s="1">
+        <v>256</v>
+      </c>
+      <c r="P21" s="1">
+        <v>180</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>57</v>
+      </c>
+      <c r="R21" s="1">
+        <v>250</v>
+      </c>
+      <c r="S21" s="1">
+        <v>182</v>
+      </c>
+      <c r="T21" s="1">
+        <v>136</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1745</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1218</v>
+      </c>
+      <c r="X21" s="1">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="1">
+        <v>363</v>
+      </c>
+      <c r="B22" s="1">
+        <v>170</v>
+      </c>
+      <c r="C22" s="1">
+        <v>123</v>
+      </c>
+      <c r="D22" s="1">
+        <v>108</v>
+      </c>
+      <c r="E22" s="1">
+        <v>171</v>
+      </c>
+      <c r="F22" s="1">
+        <v>117</v>
+      </c>
+      <c r="G22" s="1">
+        <v>145</v>
+      </c>
+      <c r="H22" s="1">
+        <v>152</v>
+      </c>
+      <c r="I22" s="1">
+        <v>150</v>
+      </c>
+      <c r="J22" s="1">
+        <v>131</v>
+      </c>
+      <c r="K22" s="1">
+        <v>68</v>
+      </c>
+      <c r="L22" s="1">
+        <v>227</v>
+      </c>
+      <c r="M22" s="1">
+        <v>98</v>
+      </c>
+      <c r="N22" s="1">
+        <v>87</v>
+      </c>
+      <c r="O22" s="1">
+        <v>95</v>
+      </c>
+      <c r="P22" s="1">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>23</v>
+      </c>
+      <c r="R22" s="1">
+        <v>87</v>
+      </c>
+      <c r="S22" s="1">
+        <v>73</v>
+      </c>
+      <c r="T22" s="1">
+        <v>50</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1745</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1246</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="1">
+        <v>408</v>
+      </c>
+      <c r="B23" s="1">
+        <v>191</v>
+      </c>
+      <c r="C23" s="1">
+        <v>140</v>
+      </c>
+      <c r="D23" s="1">
+        <v>124</v>
+      </c>
+      <c r="E23" s="1">
+        <v>185</v>
+      </c>
+      <c r="F23" s="1">
+        <v>129</v>
+      </c>
+      <c r="G23" s="1">
+        <v>167</v>
+      </c>
+      <c r="H23" s="1">
+        <v>173</v>
+      </c>
+      <c r="I23" s="1">
+        <v>167</v>
+      </c>
+      <c r="J23" s="1">
+        <v>157</v>
+      </c>
+      <c r="K23" s="1">
+        <v>72</v>
+      </c>
+      <c r="L23" s="1">
+        <v>264</v>
+      </c>
+      <c r="M23" s="1">
+        <v>119</v>
+      </c>
+      <c r="N23" s="1">
+        <v>103</v>
+      </c>
+      <c r="O23" s="1">
+        <v>107</v>
+      </c>
+      <c r="P23" s="1">
+        <v>87</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>27</v>
+      </c>
+      <c r="R23" s="1">
+        <v>100</v>
+      </c>
+      <c r="S23" s="1">
+        <v>82</v>
+      </c>
+      <c r="T23" s="1">
+        <v>51</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1218</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1246</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="1">
+        <v>476</v>
+      </c>
+      <c r="B24" s="1">
+        <v>220</v>
+      </c>
+      <c r="C24" s="1">
+        <v>160</v>
+      </c>
+      <c r="D24" s="1">
+        <v>139</v>
+      </c>
+      <c r="E24" s="1">
+        <v>217</v>
+      </c>
+      <c r="F24" s="1">
+        <v>149</v>
+      </c>
+      <c r="G24" s="1">
+        <v>185</v>
+      </c>
+      <c r="H24" s="1">
+        <v>191</v>
+      </c>
+      <c r="I24" s="1">
+        <v>199</v>
+      </c>
+      <c r="J24" s="1">
+        <v>170</v>
+      </c>
+      <c r="K24" s="1">
+        <v>86</v>
+      </c>
+      <c r="L24" s="1">
+        <v>292</v>
+      </c>
+      <c r="M24" s="1">
+        <v>126</v>
+      </c>
+      <c r="N24" s="1">
+        <v>111</v>
+      </c>
+      <c r="O24" s="1">
+        <v>126</v>
+      </c>
+      <c r="P24" s="1">
+        <v>92</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>29</v>
+      </c>
+      <c r="R24" s="1">
+        <v>124</v>
+      </c>
+      <c r="S24" s="1">
+        <v>91</v>
+      </c>
+      <c r="T24" s="1">
+        <v>62</v>
+      </c>
+      <c r="U24" s="1">
+        <v>3730</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1573</v>
+      </c>
+      <c r="W24" s="1">
+        <v>1012</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Group8_results.xlsx
+++ b/Group8_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Koen/Documents/GitHub/airlineplanning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\airlineplanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4F5961-BF43-9442-936F-319861A12354}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E574E8D5-C390-4FAA-8453-52C074BA85DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="10220" activeTab="2" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="21576" windowHeight="10224" activeTab="1" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
   </bookViews>
   <sheets>
     <sheet name="new_demands" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -415,705 +415,705 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A76092-8D2F-4800-9327-2E4D065F7BB7}">
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:X48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>686.92593616209081</v>
+        <v>1030</v>
       </c>
       <c r="C1">
-        <v>435.45454545454538</v>
+        <v>654</v>
       </c>
       <c r="D1">
-        <v>236.15254875538145</v>
+        <v>288</v>
       </c>
       <c r="E1">
-        <v>149.99999999999983</v>
+        <v>278</v>
       </c>
       <c r="F1">
-        <v>112.99999999999987</v>
+        <v>209</v>
       </c>
       <c r="G1">
-        <v>240.00218874560338</v>
+        <v>294</v>
       </c>
       <c r="H1">
-        <v>64.999999999999972</v>
+        <v>210</v>
       </c>
       <c r="I1">
-        <v>488.99999999999989</v>
+        <v>597</v>
       </c>
       <c r="J1">
-        <v>124.99999999999986</v>
+        <v>153</v>
       </c>
       <c r="K1">
         <v>0</v>
       </c>
       <c r="L1">
-        <v>333.39183353700912</v>
+        <v>500</v>
       </c>
       <c r="M1">
-        <v>69.999999999999929</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>81.999999999999986</v>
+        <v>100</v>
       </c>
       <c r="O1">
-        <v>232.99999999999994</v>
+        <v>285</v>
       </c>
       <c r="P1">
-        <v>44.99999999999995</v>
+        <v>67</v>
       </c>
       <c r="Q1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R1">
-        <v>26.999999999999972</v>
+        <v>0</v>
       </c>
       <c r="S1">
-        <v>36.999999999999957</v>
+        <v>87</v>
       </c>
       <c r="T1">
         <v>0</v>
       </c>
       <c r="U1">
-        <v>873.82454115674841</v>
+        <v>1310</v>
       </c>
       <c r="V1">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="W1">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="X1">
-        <v>0</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>686.92593616209081</v>
+        <v>1030</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>189.99999999999997</v>
+        <v>284</v>
       </c>
       <c r="D2">
-        <v>154.37564256834222</v>
+        <v>189</v>
       </c>
       <c r="E2">
-        <v>76.999999999999915</v>
+        <v>143</v>
       </c>
       <c r="F2">
-        <v>67.999999999999929</v>
+        <v>126</v>
       </c>
       <c r="G2">
-        <v>140.67366245872606</v>
+        <v>172</v>
       </c>
       <c r="H2">
-        <v>75.999999999999915</v>
+        <v>142</v>
       </c>
       <c r="I2">
-        <v>110.99999999999997</v>
+        <v>135</v>
       </c>
       <c r="J2">
-        <v>49.999999999999943</v>
+        <v>62</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>158.94296927154761</v>
+        <v>239</v>
       </c>
       <c r="M2">
-        <v>29.999999999999968</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>39.999999999999993</v>
+        <v>48</v>
       </c>
       <c r="O2">
-        <v>56.999999999999986</v>
+        <v>69</v>
       </c>
       <c r="P2">
-        <v>21.999999999999975</v>
+        <v>34</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R2">
-        <v>9.9999999999999893</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>19.999999999999979</v>
+        <v>48</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>355.33801750937943</v>
+        <v>533</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
-        <v>435.45454545454538</v>
+        <v>654</v>
       </c>
       <c r="B3">
-        <v>189.99999999999997</v>
+        <v>284</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>129.70588235294116</v>
+        <v>163</v>
       </c>
       <c r="E3">
-        <v>36.999999999999957</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>29.999999999999968</v>
+        <v>56</v>
       </c>
       <c r="G3">
-        <v>108.99999999999997</v>
+        <v>133</v>
       </c>
       <c r="H3">
-        <v>42.99999999999995</v>
+        <v>81</v>
       </c>
       <c r="I3">
-        <v>79.999999999999972</v>
+        <v>98</v>
       </c>
       <c r="J3">
-        <v>48.999999999999943</v>
+        <v>59</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>166.2222222222222</v>
+        <v>250</v>
       </c>
       <c r="M3">
-        <v>25.999999999999972</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>33.999999999999986</v>
+        <v>42</v>
       </c>
       <c r="O3">
-        <v>52.999999999999979</v>
+        <v>65</v>
       </c>
       <c r="P3">
-        <v>15.999999999999982</v>
+        <v>24</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>6.999999999999992</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>11.999999999999986</v>
+        <v>28</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>231.30434782608694</v>
+        <v>343</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>240.59829846105089</v>
+        <v>293</v>
       </c>
       <c r="B4">
-        <v>168.99999999999997</v>
+        <v>207</v>
       </c>
       <c r="C4">
-        <v>137.8125</v>
+        <v>171</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>33.999999999999964</v>
+        <v>64</v>
       </c>
       <c r="F4">
-        <v>31.999999999999964</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>268.18058337565395</v>
+        <v>268</v>
       </c>
       <c r="H4">
-        <v>27.999999999999986</v>
+        <v>90</v>
       </c>
       <c r="I4">
-        <v>52.999999999999986</v>
+        <v>53</v>
       </c>
       <c r="J4">
-        <v>45.99999999999995</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>260.18291403792387</v>
+        <v>319</v>
       </c>
       <c r="M4">
-        <v>25.999999999999972</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>42.999999999999993</v>
+        <v>43</v>
       </c>
       <c r="O4">
-        <v>31.999999999999993</v>
+        <v>32</v>
       </c>
       <c r="P4">
-        <v>20.999999999999975</v>
+        <v>25</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>4.9999999999999947</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>13.999999999999984</v>
+        <v>32</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>239.22908063353532</v>
+        <v>297</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5">
-        <v>149.99999999999983</v>
+        <v>278</v>
       </c>
       <c r="B5">
-        <v>76.999999999999915</v>
+        <v>143</v>
       </c>
       <c r="C5">
-        <v>36.999999999999957</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>33.999999999999964</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>129.99999999999986</v>
+        <v>242</v>
       </c>
       <c r="G5">
-        <v>47.999999999999943</v>
+        <v>90</v>
       </c>
       <c r="H5">
-        <v>60.999999999999929</v>
+        <v>113</v>
       </c>
       <c r="I5">
-        <v>41.99999999999995</v>
+        <v>78</v>
       </c>
       <c r="J5">
-        <v>21.999999999999975</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>61.999999999999929</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>13.999999999999984</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>16.999999999999982</v>
+        <v>31</v>
       </c>
       <c r="O5">
-        <v>19.999999999999979</v>
+        <v>38</v>
       </c>
       <c r="P5">
-        <v>13.999999999999984</v>
+        <v>26</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>6.999999999999992</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>19.999999999999979</v>
+        <v>48</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>341.9999999999996</v>
+        <v>636</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6">
-        <v>112.99999999999987</v>
+        <v>209</v>
       </c>
       <c r="B6">
-        <v>67.999999999999929</v>
+        <v>126</v>
       </c>
       <c r="C6">
-        <v>29.999999999999968</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>31.999999999999964</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>129.99999999999986</v>
+        <v>242</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46.99999999999995</v>
+        <v>87</v>
       </c>
       <c r="H6">
-        <v>69.999999999999929</v>
+        <v>130</v>
       </c>
       <c r="I6">
-        <v>27.999999999999968</v>
+        <v>52</v>
       </c>
       <c r="J6">
-        <v>16.999999999999982</v>
+        <v>31</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>53.999999999999943</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>10.999999999999988</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.999999999999984</v>
+        <v>26</v>
       </c>
       <c r="O6">
-        <v>13.999999999999984</v>
+        <v>26</v>
       </c>
       <c r="P6">
-        <v>11.999999999999986</v>
+        <v>22</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R6">
-        <v>4.9999999999999947</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>20.999999999999975</v>
+        <v>49</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>216.99999999999977</v>
+        <v>403</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <v>240.00218874560338</v>
+        <v>294</v>
       </c>
       <c r="B7">
-        <v>140.67366245872606</v>
+        <v>172</v>
       </c>
       <c r="C7">
-        <v>108.99999999999997</v>
+        <v>133</v>
       </c>
       <c r="D7">
-        <v>268.18058337565395</v>
+        <v>268</v>
       </c>
       <c r="E7">
-        <v>47.999999999999943</v>
+        <v>90</v>
       </c>
       <c r="F7">
-        <v>46.99999999999995</v>
+        <v>87</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>112.99999999999987</v>
+        <v>211</v>
       </c>
       <c r="I7">
-        <v>58.999999999999986</v>
+        <v>59</v>
       </c>
       <c r="J7">
-        <v>61.999999999999929</v>
+        <v>62</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>330.71452720838028</v>
+        <v>404</v>
       </c>
       <c r="M7">
-        <v>36.999999999999957</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>74.999999999999986</v>
+        <v>75</v>
       </c>
       <c r="O7">
-        <v>35.999999999999993</v>
+        <v>36</v>
       </c>
       <c r="P7">
-        <v>38.999999999999957</v>
+        <v>47</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>6.999999999999992</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>24.999999999999972</v>
+        <v>59</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>336.38391910338106</v>
+        <v>412</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8">
-        <v>129.99999999999986</v>
+        <v>242</v>
       </c>
       <c r="B8">
-        <v>37.999999999999986</v>
+        <v>123</v>
       </c>
       <c r="C8">
-        <v>42.99999999999995</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>27.999999999999986</v>
+        <v>90</v>
       </c>
       <c r="E8">
-        <v>60.999999999999929</v>
+        <v>113</v>
       </c>
       <c r="F8">
-        <v>69.999999999999929</v>
+        <v>130</v>
       </c>
       <c r="G8">
-        <v>112.99999999999987</v>
+        <v>211</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.999999999999964</v>
+        <v>60</v>
       </c>
       <c r="J8">
-        <v>28.999999999999968</v>
+        <v>55</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>104.99999999999989</v>
+        <v>195</v>
       </c>
       <c r="M8">
-        <v>19.999999999999979</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>30.999999999999964</v>
+        <v>59</v>
       </c>
       <c r="O8">
-        <v>17.999999999999979</v>
+        <v>34</v>
       </c>
       <c r="P8">
-        <v>33.999999999999964</v>
+        <v>62</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R8">
-        <v>5.9999999999999929</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>88.999999999999957</v>
+        <v>207</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>143.99999999999994</v>
+        <v>463</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>488.99999999999989</v>
+        <v>597</v>
       </c>
       <c r="B9">
-        <v>110.99999999999997</v>
+        <v>135</v>
       </c>
       <c r="C9">
-        <v>79.999999999999972</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>52.999999999999986</v>
+        <v>53</v>
       </c>
       <c r="E9">
-        <v>41.99999999999995</v>
+        <v>78</v>
       </c>
       <c r="F9">
-        <v>27.999999999999968</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>58.999999999999986</v>
+        <v>59</v>
       </c>
       <c r="H9">
-        <v>31.999999999999964</v>
+        <v>60</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>40.999999999999957</v>
+        <v>41</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>92.999999999999986</v>
+        <v>113</v>
       </c>
       <c r="M9">
-        <v>23.999999999999972</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>23.999999999999993</v>
+        <v>24</v>
       </c>
       <c r="O9">
-        <v>145.99999999999997</v>
+        <v>146</v>
       </c>
       <c r="P9">
-        <v>12.999999999999986</v>
+        <v>17</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>11.999999999999986</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>9.9999999999999893</v>
+        <v>22</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>395.99999999999989</v>
+        <v>484</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>124.99999999999986</v>
+        <v>153</v>
       </c>
       <c r="B10">
-        <v>49.999999999999943</v>
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>48.999999999999943</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>45.99999999999995</v>
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>21.999999999999975</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>16.999999999999982</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>61.999999999999929</v>
+        <v>62</v>
       </c>
       <c r="H10">
-        <v>28.999999999999968</v>
+        <v>55</v>
       </c>
       <c r="I10">
-        <v>40.999999999999957</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1122,43 +1122,43 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>154.99999999999983</v>
+        <v>189</v>
       </c>
       <c r="M10">
-        <v>151.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>56.999999999999936</v>
+        <v>57</v>
       </c>
       <c r="O10">
-        <v>29.999999999999968</v>
+        <v>30</v>
       </c>
       <c r="P10">
-        <v>20.999999999999975</v>
+        <v>25</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R10">
-        <v>7.9999999999999911</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>8.9999999999999893</v>
+        <v>21</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>309.99999999999966</v>
+        <v>380</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1237,34 +1237,34 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <v>333.39183353700912</v>
+        <v>500</v>
       </c>
       <c r="B12">
-        <v>158.94296927154761</v>
+        <v>239</v>
       </c>
       <c r="C12">
-        <v>166.2222222222222</v>
+        <v>250</v>
       </c>
       <c r="D12">
-        <v>260.18291403792387</v>
+        <v>319</v>
       </c>
       <c r="E12">
-        <v>61.999999999999929</v>
+        <v>114</v>
       </c>
       <c r="F12">
-        <v>53.999999999999943</v>
+        <v>100</v>
       </c>
       <c r="G12">
-        <v>340.08407312130032</v>
+        <v>416</v>
       </c>
       <c r="H12">
-        <v>52.499999999999979</v>
+        <v>169</v>
       </c>
       <c r="I12">
-        <v>92.999999999999986</v>
+        <v>113</v>
       </c>
       <c r="J12">
-        <v>154.99999999999983</v>
+        <v>189</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1273,105 +1273,105 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>81.999999999999915</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>174.99999999999997</v>
+        <v>215</v>
       </c>
       <c r="O12">
-        <v>62.999999999999986</v>
+        <v>77</v>
       </c>
       <c r="P12">
-        <v>50.999999999999943</v>
+        <v>77</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R12">
-        <v>12.999999999999986</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>27.999999999999968</v>
+        <v>66</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>498.23023433789223</v>
+        <v>746</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13">
-        <v>69.999999999999929</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>29.999999999999968</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>25.999999999999972</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>25.999999999999972</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>13.999999999999984</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>10.999999999999988</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>36.999999999999957</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>19.999999999999979</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>23.999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>151.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>81.999999999999915</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>36.999999999999957</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>14.999999999999984</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>4.9999999999999947</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>5.9999999999999929</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>215.99999999999977</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1385,274 +1385,274 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14">
-        <v>81.999999999999986</v>
+        <v>100</v>
       </c>
       <c r="B14">
-        <v>39.999999999999993</v>
+        <v>48</v>
       </c>
       <c r="C14">
-        <v>33.999999999999986</v>
+        <v>42</v>
       </c>
       <c r="D14">
-        <v>42.999999999999993</v>
+        <v>43</v>
       </c>
       <c r="E14">
-        <v>16.999999999999982</v>
+        <v>31</v>
       </c>
       <c r="F14">
-        <v>13.999999999999984</v>
+        <v>26</v>
       </c>
       <c r="G14">
-        <v>74.999999999999986</v>
+        <v>75</v>
       </c>
       <c r="H14">
-        <v>30.999999999999964</v>
+        <v>59</v>
       </c>
       <c r="I14">
-        <v>23.999999999999993</v>
+        <v>24</v>
       </c>
       <c r="J14">
-        <v>56.999999999999936</v>
+        <v>57</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>174.99999999999997</v>
+        <v>215</v>
       </c>
       <c r="M14">
-        <v>36.999999999999957</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.999999999999996</v>
+        <v>16</v>
       </c>
       <c r="P14">
-        <v>27.999999999999968</v>
+        <v>34</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R14">
-        <v>3.9999999999999956</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>8.9999999999999893</v>
+        <v>21</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>185.99999999999997</v>
+        <v>228</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15">
-        <v>232.99999999999994</v>
+        <v>285</v>
       </c>
       <c r="B15">
-        <v>56.999999999999986</v>
+        <v>69</v>
       </c>
       <c r="C15">
-        <v>52.999999999999979</v>
+        <v>65</v>
       </c>
       <c r="D15">
-        <v>31.999999999999993</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>19.999999999999979</v>
+        <v>38</v>
       </c>
       <c r="F15">
-        <v>13.999999999999984</v>
+        <v>26</v>
       </c>
       <c r="G15">
-        <v>35.999999999999993</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>17.999999999999979</v>
+        <v>34</v>
       </c>
       <c r="I15">
-        <v>145.99999999999997</v>
+        <v>146</v>
       </c>
       <c r="J15">
-        <v>29.999999999999968</v>
+        <v>30</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>62.999999999999986</v>
+        <v>77</v>
       </c>
       <c r="M15">
-        <v>16.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>15.999999999999996</v>
+        <v>16</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>7.9999999999999911</v>
+        <v>10</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>6.999999999999992</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>4.9999999999999947</v>
+        <v>13</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>223.99999999999994</v>
+        <v>274</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16">
-        <v>44.99999999999995</v>
+        <v>67</v>
       </c>
       <c r="B16">
-        <v>21.999999999999975</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>15.999999999999982</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>20.999999999999975</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>13.999999999999984</v>
+        <v>26</v>
       </c>
       <c r="F16">
-        <v>11.999999999999986</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>38.999999999999957</v>
+        <v>47</v>
       </c>
       <c r="H16">
-        <v>33.999999999999964</v>
+        <v>62</v>
       </c>
       <c r="I16">
-        <v>12.999999999999986</v>
+        <v>17</v>
       </c>
       <c r="J16">
-        <v>20.999999999999975</v>
+        <v>25</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>50.999999999999943</v>
+        <v>77</v>
       </c>
       <c r="M16">
-        <v>14.999999999999984</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>27.999999999999968</v>
+        <v>34</v>
       </c>
       <c r="O16">
-        <v>7.9999999999999911</v>
+        <v>10</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R16">
-        <v>1.9999999999999978</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>10.999999999999988</v>
+        <v>27</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>133.99999999999986</v>
+        <v>202</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1661,72 +1661,72 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18">
-        <v>26.999999999999972</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>9.9999999999999893</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>6.999999999999992</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>4.9999999999999947</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>6.999999999999992</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>4.9999999999999947</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>6.999999999999992</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>5.9999999999999929</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>11.999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>7.9999999999999911</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.999999999999986</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>4.9999999999999947</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>3.9999999999999956</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>6.999999999999992</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.9999999999999978</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1735,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>1.9999999999999978</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>143.99999999999983</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -1755,58 +1755,58 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19">
-        <v>36.999999999999957</v>
+        <v>87</v>
       </c>
       <c r="B19">
-        <v>19.999999999999979</v>
+        <v>48</v>
       </c>
       <c r="C19">
-        <v>11.999999999999986</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>13.999999999999984</v>
+        <v>32</v>
       </c>
       <c r="E19">
-        <v>19.999999999999979</v>
+        <v>48</v>
       </c>
       <c r="F19">
-        <v>20.999999999999975</v>
+        <v>49</v>
       </c>
       <c r="G19">
-        <v>24.999999999999972</v>
+        <v>59</v>
       </c>
       <c r="H19">
-        <v>88.999999999999957</v>
+        <v>207</v>
       </c>
       <c r="I19">
-        <v>9.9999999999999893</v>
+        <v>22</v>
       </c>
       <c r="J19">
-        <v>8.9999999999999893</v>
+        <v>21</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>27.999999999999968</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>5.9999999999999929</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>8.9999999999999893</v>
+        <v>21</v>
       </c>
       <c r="O19">
-        <v>4.9999999999999947</v>
+        <v>13</v>
       </c>
       <c r="P19">
-        <v>10.999999999999988</v>
+        <v>27</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R19">
-        <v>1.9999999999999978</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>102.99999999999989</v>
+        <v>241</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1903,61 +1903,61 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21">
-        <v>873.82454115674841</v>
+        <v>1310</v>
       </c>
       <c r="B21">
-        <v>355.33801750937943</v>
+        <v>533</v>
       </c>
       <c r="C21">
-        <v>241.81818181818181</v>
+        <v>360</v>
       </c>
       <c r="D21">
-        <v>246.13977882015175</v>
+        <v>303</v>
       </c>
       <c r="E21">
-        <v>341.9999999999996</v>
+        <v>636</v>
       </c>
       <c r="F21">
-        <v>216.99999999999977</v>
+        <v>403</v>
       </c>
       <c r="G21">
-        <v>345.91408580337975</v>
+        <v>424</v>
       </c>
       <c r="H21">
-        <v>143.99999999999994</v>
+        <v>463</v>
       </c>
       <c r="I21">
-        <v>395.99999999999989</v>
+        <v>484</v>
       </c>
       <c r="J21">
-        <v>309.99999999999966</v>
+        <v>380</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>506.71577008376812</v>
+        <v>759</v>
       </c>
       <c r="M21">
-        <v>215.99999999999977</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>185.99999999999997</v>
+        <v>228</v>
       </c>
       <c r="O21">
-        <v>223.99999999999994</v>
+        <v>274</v>
       </c>
       <c r="P21">
-        <v>133.99999999999986</v>
+        <v>202</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R21">
-        <v>143.99999999999983</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>102.99999999999989</v>
+        <v>241</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -1966,232 +1966,232 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -2202,694 +2202,694 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>1030.3889042431363</v>
+        <v>687</v>
       </c>
       <c r="C25">
-        <v>653.63636363636351</v>
+        <v>435</v>
       </c>
       <c r="D25">
-        <v>288.01350063891618</v>
+        <v>236</v>
       </c>
       <c r="E25">
-        <v>277.99999999999972</v>
+        <v>150</v>
       </c>
       <c r="F25">
-        <v>208.99999999999977</v>
+        <v>113</v>
       </c>
       <c r="G25">
-        <v>294.41564044501143</v>
+        <v>238</v>
       </c>
       <c r="H25">
-        <v>120.99999999999994</v>
+        <v>113</v>
       </c>
       <c r="I25">
-        <v>596.99999999999989</v>
+        <v>489</v>
       </c>
       <c r="J25">
-        <v>152.99999999999983</v>
+        <v>125</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>500.08775030551368</v>
+        <v>333</v>
       </c>
       <c r="M25">
-        <v>85.999999999999901</v>
+        <v>70</v>
       </c>
       <c r="N25">
-        <v>99.999999999999972</v>
+        <v>82</v>
       </c>
       <c r="O25">
-        <v>284.99999999999994</v>
+        <v>233</v>
       </c>
       <c r="P25">
-        <v>66.999999999999929</v>
+        <v>45</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R25">
-        <v>62.999999999999929</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>86.999999999999901</v>
+        <v>37</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>1310.2821683734385</v>
+        <v>874</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26">
-        <v>1030.3889042431363</v>
+        <v>687</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>283.99999999999994</v>
+        <v>190</v>
       </c>
       <c r="D26">
-        <v>189.08732551270319</v>
+        <v>154</v>
       </c>
       <c r="E26">
-        <v>142.99999999999983</v>
+        <v>77</v>
       </c>
       <c r="F26">
-        <v>125.99999999999986</v>
+        <v>68</v>
       </c>
       <c r="G26">
-        <v>171.7314840405227</v>
+        <v>141</v>
       </c>
       <c r="H26">
-        <v>141.99999999999983</v>
+        <v>76</v>
       </c>
       <c r="I26">
-        <v>134.99999999999997</v>
+        <v>111</v>
       </c>
       <c r="J26">
-        <v>61.999999999999929</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>239.32791924796248</v>
+        <v>159</v>
       </c>
       <c r="M26">
-        <v>35.999999999999957</v>
+        <v>30</v>
       </c>
       <c r="N26">
-        <v>47.999999999999986</v>
+        <v>40</v>
       </c>
       <c r="O26">
-        <v>68.999999999999986</v>
+        <v>57</v>
       </c>
       <c r="P26">
-        <v>33.999999999999964</v>
+        <v>22</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R26">
-        <v>21.999999999999975</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>47.999999999999943</v>
+        <v>20</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26">
-        <v>532.55029359374862</v>
+        <v>355</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <v>653.63636363636351</v>
+        <v>435</v>
       </c>
       <c r="B27">
-        <v>283.99999999999994</v>
+        <v>190</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>157.94117647058823</v>
+        <v>134</v>
       </c>
       <c r="E27">
-        <v>68.999999999999929</v>
+        <v>37</v>
       </c>
       <c r="F27">
-        <v>55.999999999999936</v>
+        <v>30</v>
       </c>
       <c r="G27">
-        <v>132.99999999999997</v>
+        <v>109</v>
       </c>
       <c r="H27">
-        <v>80.999999999999915</v>
+        <v>43</v>
       </c>
       <c r="I27">
-        <v>97.999999999999957</v>
+        <v>80</v>
       </c>
       <c r="J27">
-        <v>58.999999999999936</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>249.77777777777777</v>
+        <v>166</v>
       </c>
       <c r="M27">
-        <v>31.999999999999964</v>
+        <v>26</v>
       </c>
       <c r="N27">
-        <v>41.999999999999979</v>
+        <v>34</v>
       </c>
       <c r="O27">
-        <v>64.999999999999972</v>
+        <v>53</v>
       </c>
       <c r="P27">
-        <v>23.999999999999972</v>
+        <v>16</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>16.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>27.999999999999968</v>
+        <v>12</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>347.82608695652175</v>
+        <v>228</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28">
-        <v>293.43557184857582</v>
+        <v>241</v>
       </c>
       <c r="B28">
-        <v>206.99999999999994</v>
+        <v>169</v>
       </c>
       <c r="C28">
-        <v>167.8125</v>
+        <v>140</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>63.999999999999929</v>
+        <v>34</v>
       </c>
       <c r="F28">
-        <v>59.999999999999936</v>
+        <v>32</v>
       </c>
       <c r="G28">
-        <v>268.18058337565395</v>
+        <v>266</v>
       </c>
       <c r="H28">
-        <v>51.999999999999979</v>
+        <v>49</v>
       </c>
       <c r="I28">
-        <v>52.999999999999986</v>
+        <v>53</v>
       </c>
       <c r="J28">
-        <v>45.99999999999995</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>318.4328201658173</v>
+        <v>261</v>
       </c>
       <c r="M28">
-        <v>25.999999999999972</v>
+        <v>26</v>
       </c>
       <c r="N28">
-        <v>42.999999999999993</v>
+        <v>43</v>
       </c>
       <c r="O28">
-        <v>31.999999999999993</v>
+        <v>32</v>
       </c>
       <c r="P28">
-        <v>24.999999999999972</v>
+        <v>21</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28">
-        <v>12.999999999999986</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>31.999999999999964</v>
+        <v>14</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
       <c r="U28">
-        <v>291.56044202212115</v>
+        <v>243</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29">
-        <v>277.99999999999972</v>
+        <v>150</v>
       </c>
       <c r="B29">
-        <v>142.99999999999983</v>
+        <v>77</v>
       </c>
       <c r="C29">
-        <v>68.999999999999929</v>
+        <v>37</v>
       </c>
       <c r="D29">
-        <v>63.999999999999929</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>241.99999999999974</v>
+        <v>130</v>
       </c>
       <c r="G29">
-        <v>89.999999999999901</v>
+        <v>48</v>
       </c>
       <c r="H29">
-        <v>112.99999999999987</v>
+        <v>61</v>
       </c>
       <c r="I29">
-        <v>77.999999999999915</v>
+        <v>42</v>
       </c>
       <c r="J29">
-        <v>39.999999999999957</v>
+        <v>22</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>113.99999999999987</v>
+        <v>62</v>
       </c>
       <c r="M29">
-        <v>25.999999999999972</v>
+        <v>14</v>
       </c>
       <c r="N29">
-        <v>30.999999999999964</v>
+        <v>17</v>
       </c>
       <c r="O29">
-        <v>37.999999999999957</v>
+        <v>20</v>
       </c>
       <c r="P29">
-        <v>25.999999999999972</v>
+        <v>14</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R29">
-        <v>16.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>47.999999999999943</v>
+        <v>20</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>635.99999999999932</v>
+        <v>342</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30">
-        <v>208.99999999999977</v>
+        <v>113</v>
       </c>
       <c r="B30">
-        <v>125.99999999999986</v>
+        <v>68</v>
       </c>
       <c r="C30">
-        <v>55.999999999999936</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>59.999999999999936</v>
+        <v>32</v>
       </c>
       <c r="E30">
-        <v>241.99999999999974</v>
+        <v>130</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>86.999999999999901</v>
+        <v>47</v>
       </c>
       <c r="H30">
-        <v>129.99999999999986</v>
+        <v>70</v>
       </c>
       <c r="I30">
-        <v>51.999999999999943</v>
+        <v>28</v>
       </c>
       <c r="J30">
-        <v>30.999999999999964</v>
+        <v>17</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>99.999999999999886</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>19.999999999999979</v>
+        <v>11</v>
       </c>
       <c r="N30">
-        <v>25.999999999999972</v>
+        <v>14</v>
       </c>
       <c r="O30">
-        <v>25.999999999999972</v>
+        <v>14</v>
       </c>
       <c r="P30">
-        <v>21.999999999999975</v>
+        <v>12</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R30">
-        <v>10.999999999999988</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>48.999999999999943</v>
+        <v>21</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
       <c r="U30">
-        <v>402.99999999999955</v>
+        <v>217</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31">
-        <v>294.41564044501143</v>
+        <v>238</v>
       </c>
       <c r="B31">
-        <v>171.7314840405227</v>
+        <v>141</v>
       </c>
       <c r="C31">
-        <v>132.99999999999997</v>
+        <v>109</v>
       </c>
       <c r="D31">
-        <v>268.18058337565395</v>
+        <v>266</v>
       </c>
       <c r="E31">
-        <v>89.999999999999901</v>
+        <v>48</v>
       </c>
       <c r="F31">
-        <v>86.999999999999901</v>
+        <v>47</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>210.99999999999977</v>
+        <v>113</v>
       </c>
       <c r="I31">
-        <v>58.999999999999986</v>
+        <v>59</v>
       </c>
       <c r="J31">
-        <v>61.999999999999929</v>
+        <v>62</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>404.41662184339071</v>
+        <v>326</v>
       </c>
       <c r="M31">
-        <v>36.999999999999957</v>
+        <v>37</v>
       </c>
       <c r="N31">
-        <v>74.999999999999986</v>
+        <v>75</v>
       </c>
       <c r="O31">
-        <v>35.999999999999993</v>
+        <v>36</v>
       </c>
       <c r="P31">
-        <v>46.99999999999995</v>
+        <v>39</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R31">
-        <v>16.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>58.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
       <c r="U31">
-        <v>411.97581103672513</v>
+        <v>332</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32">
-        <v>241.99999999999974</v>
+        <v>130</v>
       </c>
       <c r="B32">
-        <v>70.999999999999972</v>
+        <v>66</v>
       </c>
       <c r="C32">
-        <v>80.999999999999915</v>
+        <v>43</v>
       </c>
       <c r="D32">
-        <v>51.999999999999979</v>
+        <v>49</v>
       </c>
       <c r="E32">
-        <v>112.99999999999987</v>
+        <v>61</v>
       </c>
       <c r="F32">
-        <v>129.99999999999986</v>
+        <v>70</v>
       </c>
       <c r="G32">
-        <v>210.99999999999977</v>
+        <v>113</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>59.999999999999936</v>
+        <v>32</v>
       </c>
       <c r="J32">
-        <v>54.999999999999936</v>
+        <v>29</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>194.99999999999977</v>
+        <v>105</v>
       </c>
       <c r="M32">
-        <v>35.999999999999957</v>
+        <v>20</v>
       </c>
       <c r="N32">
-        <v>58.999999999999936</v>
+        <v>31</v>
       </c>
       <c r="O32">
-        <v>33.999999999999964</v>
+        <v>18</v>
       </c>
       <c r="P32">
-        <v>61.999999999999929</v>
+        <v>34</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R32">
-        <v>13.999999999999984</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>206.99999999999991</v>
+        <v>89</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>266.99999999999989</v>
+        <v>249</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
-        <v>596.99999999999989</v>
+        <v>489</v>
       </c>
       <c r="B33">
-        <v>134.99999999999997</v>
+        <v>111</v>
       </c>
       <c r="C33">
-        <v>97.999999999999957</v>
+        <v>80</v>
       </c>
       <c r="D33">
-        <v>52.999999999999986</v>
+        <v>53</v>
       </c>
       <c r="E33">
-        <v>77.999999999999915</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>51.999999999999943</v>
+        <v>28</v>
       </c>
       <c r="G33">
-        <v>58.999999999999986</v>
+        <v>59</v>
       </c>
       <c r="H33">
-        <v>59.999999999999936</v>
+        <v>32</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>40.999999999999957</v>
+        <v>41</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>112.99999999999997</v>
+        <v>93</v>
       </c>
       <c r="M33">
-        <v>23.999999999999972</v>
+        <v>24</v>
       </c>
       <c r="N33">
-        <v>23.999999999999993</v>
+        <v>24</v>
       </c>
       <c r="O33">
-        <v>145.99999999999997</v>
+        <v>146</v>
       </c>
       <c r="P33">
-        <v>16.999999999999982</v>
+        <v>13</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>27.999999999999968</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>21.999999999999975</v>
+        <v>10</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>483.99999999999989</v>
+        <v>396</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34">
-        <v>152.99999999999983</v>
+        <v>125</v>
       </c>
       <c r="B34">
-        <v>61.999999999999929</v>
+        <v>50</v>
       </c>
       <c r="C34">
-        <v>58.999999999999936</v>
+        <v>49</v>
       </c>
       <c r="D34">
-        <v>45.99999999999995</v>
+        <v>46</v>
       </c>
       <c r="E34">
-        <v>39.999999999999957</v>
+        <v>22</v>
       </c>
       <c r="F34">
-        <v>30.999999999999964</v>
+        <v>17</v>
       </c>
       <c r="G34">
-        <v>61.999999999999929</v>
+        <v>62</v>
       </c>
       <c r="H34">
-        <v>54.999999999999936</v>
+        <v>29</v>
       </c>
       <c r="I34">
-        <v>40.999999999999957</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2898,43 +2898,43 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>188.9999999999998</v>
+        <v>155</v>
       </c>
       <c r="M34">
-        <v>151.99999999999994</v>
+        <v>152</v>
       </c>
       <c r="N34">
-        <v>56.999999999999936</v>
+        <v>57</v>
       </c>
       <c r="O34">
-        <v>29.999999999999968</v>
+        <v>30</v>
       </c>
       <c r="P34">
-        <v>24.999999999999972</v>
+        <v>21</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>17.999999999999979</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>20.999999999999975</v>
+        <v>9</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>379.9999999999996</v>
+        <v>310</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3013,34 +3013,34 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36">
-        <v>500.08775030551368</v>
+        <v>333</v>
       </c>
       <c r="B36">
-        <v>239.32791924796248</v>
+        <v>159</v>
       </c>
       <c r="C36">
-        <v>249.77777777777777</v>
+        <v>166</v>
       </c>
       <c r="D36">
-        <v>318.4328201658173</v>
+        <v>261</v>
       </c>
       <c r="E36">
-        <v>113.99999999999987</v>
+        <v>62</v>
       </c>
       <c r="F36">
-        <v>99.999999999999886</v>
+        <v>54</v>
       </c>
       <c r="G36">
-        <v>415.87423798833294</v>
+        <v>338</v>
       </c>
       <c r="H36">
-        <v>97.499999999999957</v>
+        <v>91</v>
       </c>
       <c r="I36">
-        <v>112.99999999999997</v>
+        <v>93</v>
       </c>
       <c r="J36">
-        <v>188.9999999999998</v>
+        <v>155</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3049,386 +3049,386 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>99.999999999999886</v>
+        <v>82</v>
       </c>
       <c r="N36">
-        <v>214.99999999999994</v>
+        <v>175</v>
       </c>
       <c r="O36">
-        <v>76.999999999999986</v>
+        <v>63</v>
       </c>
       <c r="P36">
-        <v>76.999999999999915</v>
+        <v>51</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R36">
-        <v>30.999999999999964</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>65.999999999999929</v>
+        <v>28</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
       <c r="U36">
-        <v>746.41233608672997</v>
+        <v>498</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37">
-        <v>85.999999999999901</v>
+        <v>70</v>
       </c>
       <c r="B37">
-        <v>35.999999999999957</v>
+        <v>30</v>
       </c>
       <c r="C37">
-        <v>31.999999999999964</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <v>25.999999999999972</v>
+        <v>26</v>
       </c>
       <c r="E37">
-        <v>25.999999999999972</v>
+        <v>14</v>
       </c>
       <c r="F37">
-        <v>19.999999999999979</v>
+        <v>11</v>
       </c>
       <c r="G37">
-        <v>36.999999999999957</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>35.999999999999957</v>
+        <v>20</v>
       </c>
       <c r="I37">
-        <v>23.999999999999972</v>
+        <v>24</v>
       </c>
       <c r="J37">
-        <v>151.99999999999994</v>
+        <v>152</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>99.999999999999886</v>
+        <v>82</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>36.999999999999957</v>
+        <v>37</v>
       </c>
       <c r="O37">
-        <v>16.999999999999982</v>
+        <v>17</v>
       </c>
       <c r="P37">
-        <v>18.999999999999979</v>
+        <v>15</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R37">
-        <v>10.999999999999988</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>13.999999999999984</v>
+        <v>6</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
       <c r="U37">
-        <v>263.99999999999972</v>
+        <v>216</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38">
-        <v>99.999999999999972</v>
+        <v>82</v>
       </c>
       <c r="B38">
-        <v>47.999999999999986</v>
+        <v>40</v>
       </c>
       <c r="C38">
-        <v>41.999999999999979</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>42.999999999999993</v>
+        <v>43</v>
       </c>
       <c r="E38">
-        <v>30.999999999999964</v>
+        <v>17</v>
       </c>
       <c r="F38">
-        <v>25.999999999999972</v>
+        <v>14</v>
       </c>
       <c r="G38">
-        <v>74.999999999999986</v>
+        <v>75</v>
       </c>
       <c r="H38">
-        <v>58.999999999999936</v>
+        <v>31</v>
       </c>
       <c r="I38">
-        <v>23.999999999999993</v>
+        <v>24</v>
       </c>
       <c r="J38">
-        <v>56.999999999999936</v>
+        <v>57</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>214.99999999999994</v>
+        <v>175</v>
       </c>
       <c r="M38">
-        <v>36.999999999999957</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>15.999999999999996</v>
+        <v>16</v>
       </c>
       <c r="P38">
-        <v>33.999999999999964</v>
+        <v>28</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>7.9999999999999911</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>20.999999999999975</v>
+        <v>9</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
       <c r="U38">
-        <v>227.99999999999994</v>
+        <v>186</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39">
-        <v>284.99999999999994</v>
+        <v>233</v>
       </c>
       <c r="B39">
-        <v>68.999999999999986</v>
+        <v>57</v>
       </c>
       <c r="C39">
-        <v>64.999999999999972</v>
+        <v>53</v>
       </c>
       <c r="D39">
-        <v>31.999999999999993</v>
+        <v>32</v>
       </c>
       <c r="E39">
-        <v>37.999999999999957</v>
+        <v>20</v>
       </c>
       <c r="F39">
-        <v>25.999999999999972</v>
+        <v>14</v>
       </c>
       <c r="G39">
-        <v>35.999999999999993</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>33.999999999999964</v>
+        <v>18</v>
       </c>
       <c r="I39">
-        <v>145.99999999999997</v>
+        <v>146</v>
       </c>
       <c r="J39">
-        <v>29.999999999999968</v>
+        <v>30</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>76.999999999999986</v>
+        <v>63</v>
       </c>
       <c r="M39">
-        <v>16.999999999999982</v>
+        <v>17</v>
       </c>
       <c r="N39">
-        <v>15.999999999999996</v>
+        <v>16</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
       <c r="P39">
-        <v>9.9999999999999893</v>
+        <v>8</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>16.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>12.999999999999986</v>
+        <v>5</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
       <c r="U39">
-        <v>273.99999999999994</v>
+        <v>224</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40">
-        <v>66.999999999999929</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>33.999999999999964</v>
+        <v>22</v>
       </c>
       <c r="C40">
-        <v>23.999999999999972</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>24.999999999999972</v>
+        <v>21</v>
       </c>
       <c r="E40">
-        <v>25.999999999999972</v>
+        <v>14</v>
       </c>
       <c r="F40">
-        <v>21.999999999999975</v>
+        <v>12</v>
       </c>
       <c r="G40">
-        <v>46.99999999999995</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>61.999999999999929</v>
+        <v>34</v>
       </c>
       <c r="I40">
-        <v>16.999999999999982</v>
+        <v>13</v>
       </c>
       <c r="J40">
-        <v>24.999999999999972</v>
+        <v>21</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>76.999999999999915</v>
+        <v>51</v>
       </c>
       <c r="M40">
-        <v>18.999999999999979</v>
+        <v>15</v>
       </c>
       <c r="N40">
-        <v>33.999999999999964</v>
+        <v>28</v>
       </c>
       <c r="O40">
-        <v>9.9999999999999893</v>
+        <v>8</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R40">
-        <v>5.9999999999999929</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>26.999999999999972</v>
+        <v>11</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
       <c r="U40">
-        <v>201.99999999999977</v>
+        <v>134</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:24">
       <c r="A41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3437,72 +3437,72 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42">
-        <v>62.999999999999929</v>
+        <v>0</v>
       </c>
       <c r="B42">
-        <v>21.999999999999975</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>16.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>12.999999999999986</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>16.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>10.999999999999988</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>16.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>13.999999999999984</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>27.999999999999968</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>17.999999999999979</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>30.999999999999964</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>10.999999999999988</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>7.9999999999999911</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>16.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>5.9999999999999929</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>5.9999999999999929</v>
+        <v>0</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
       <c r="U42">
-        <v>335.9999999999996</v>
+        <v>0</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -3531,58 +3531,58 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43">
-        <v>86.999999999999901</v>
+        <v>37</v>
       </c>
       <c r="B43">
-        <v>47.999999999999943</v>
+        <v>20</v>
       </c>
       <c r="C43">
-        <v>27.999999999999968</v>
+        <v>12</v>
       </c>
       <c r="D43">
-        <v>31.999999999999964</v>
+        <v>14</v>
       </c>
       <c r="E43">
-        <v>47.999999999999943</v>
+        <v>20</v>
       </c>
       <c r="F43">
-        <v>48.999999999999943</v>
+        <v>21</v>
       </c>
       <c r="G43">
-        <v>58.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="H43">
-        <v>206.99999999999991</v>
+        <v>89</v>
       </c>
       <c r="I43">
-        <v>21.999999999999975</v>
+        <v>10</v>
       </c>
       <c r="J43">
-        <v>20.999999999999975</v>
+        <v>9</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>65.999999999999929</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>13.999999999999984</v>
+        <v>6</v>
       </c>
       <c r="N43">
-        <v>20.999999999999975</v>
+        <v>9</v>
       </c>
       <c r="O43">
-        <v>12.999999999999986</v>
+        <v>5</v>
       </c>
       <c r="P43">
-        <v>26.999999999999972</v>
+        <v>11</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R43">
-        <v>5.9999999999999929</v>
+        <v>0</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3591,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>240.99999999999974</v>
+        <v>103</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3679,61 +3679,61 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45">
-        <v>1310.2821683734385</v>
+        <v>874</v>
       </c>
       <c r="B45">
-        <v>532.55029359374862</v>
+        <v>355</v>
       </c>
       <c r="C45">
-        <v>363.63636363636363</v>
+        <v>239</v>
       </c>
       <c r="D45">
-        <v>299.98285543705992</v>
+        <v>249</v>
       </c>
       <c r="E45">
-        <v>635.99999999999932</v>
+        <v>342</v>
       </c>
       <c r="F45">
-        <v>402.99999999999955</v>
+        <v>217</v>
       </c>
       <c r="G45">
-        <v>423.64758823110554</v>
+        <v>343</v>
       </c>
       <c r="H45">
-        <v>266.99999999999989</v>
+        <v>249</v>
       </c>
       <c r="I45">
-        <v>483.99999999999989</v>
+        <v>396</v>
       </c>
       <c r="J45">
-        <v>379.9999999999996</v>
+        <v>310</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>759.12474918916575</v>
+        <v>507</v>
       </c>
       <c r="M45">
-        <v>263.99999999999972</v>
+        <v>216</v>
       </c>
       <c r="N45">
-        <v>227.99999999999994</v>
+        <v>186</v>
       </c>
       <c r="O45">
-        <v>273.99999999999994</v>
+        <v>224</v>
       </c>
       <c r="P45">
-        <v>201.99999999999977</v>
+        <v>134</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R45">
-        <v>335.9999999999996</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>240.99999999999974</v>
+        <v>103</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -3742,232 +3742,232 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R46">
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="T46">
         <v>0</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:24">
       <c r="A48">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="T48">
         <v>0</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -3980,13 +3980,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88199124-0503-4813-9C0A-CED251012E4C}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:X48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4159,10 +4159,10 @@
         <v>8</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4174,7 +4174,7 @@
         <v>16</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -4186,28 +4186,28 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>18</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
         <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>20</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -5761,6 +5761,1782 @@
         <v>0</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>16</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>18</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
         <v>0</v>
       </c>
     </row>
@@ -5773,11 +7549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910AB63E-1E56-3C47-80AE-DD06BF76CDE9}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1">

--- a/Group8_results.xlsx
+++ b/Group8_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\airlineplanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E574E8D5-C390-4FAA-8453-52C074BA85DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D14FDB-47E9-411F-95A5-870F95F00967}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="21576" windowHeight="10224" activeTab="1" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
   </bookViews>
@@ -4162,7 +4162,7 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4174,7 +4174,7 @@
         <v>16</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -5938,7 +5938,7 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -6358,13 +6358,13 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>2</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>

--- a/Group8_results.xlsx
+++ b/Group8_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\airlineplanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D14FDB-47E9-411F-95A5-870F95F00967}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F78C55-48C6-4FBC-96A1-03903386E2FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="21576" windowHeight="10224" activeTab="1" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
   </bookViews>

--- a/Group8_results.xlsx
+++ b/Group8_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\airlineplanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F78C55-48C6-4FBC-96A1-03903386E2FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A52A87D-0E0E-4EC2-B8C0-026621E7635A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="21576" windowHeight="10224" activeTab="1" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
   </bookViews>

--- a/Group8_results.xlsx
+++ b/Group8_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\airlineplanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A52A87D-0E0E-4EC2-B8C0-026621E7635A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A361D4C4-DF4E-41AE-8B73-20E34B5DF4F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="21576" windowHeight="10224" activeTab="1" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
   </bookViews>
@@ -4162,7 +4162,7 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4174,7 +4174,7 @@
         <v>16</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -5938,7 +5938,7 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -6358,13 +6358,13 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>0</v>

--- a/Group8_results.xlsx
+++ b/Group8_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\airlineplanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A361D4C4-DF4E-41AE-8B73-20E34B5DF4F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1E247-EA5A-42C8-80DE-9D3425330217}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="21576" windowHeight="10224" activeTab="1" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
   </bookViews>
@@ -4162,7 +4162,7 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4174,7 +4174,7 @@
         <v>16</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -5938,7 +5938,7 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -6358,13 +6358,13 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>2</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>

--- a/Group8_results.xlsx
+++ b/Group8_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\airlineplanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1E247-EA5A-42C8-80DE-9D3425330217}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F706D873-BC96-4C5E-A808-54C52B3B017E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="21576" windowHeight="10224" activeTab="1" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
   </bookViews>

--- a/Group8_results.xlsx
+++ b/Group8_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\airlineplanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F706D873-BC96-4C5E-A808-54C52B3B017E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676AFDC8-8555-475A-88B1-6E71E2894897}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="21576" windowHeight="10224" activeTab="1" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
   </bookViews>
@@ -4162,7 +4162,7 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4174,7 +4174,7 @@
         <v>16</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -5938,7 +5938,7 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -6358,13 +6358,13 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>0</v>

--- a/Group8_results.xlsx
+++ b/Group8_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\airlineplanning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Documents\lr\MSc\airline planning\airline planning code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676AFDC8-8555-475A-88B1-6E71E2894897}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D6AD74-56F6-4942-8618-A71FDC6D7685}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="21576" windowHeight="10224" activeTab="1" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="10230" activeTab="1" xr2:uid="{0837EA09-EFE8-486C-BBF5-C9418E4164D4}"/>
   </bookViews>
   <sheets>
     <sheet name="new_demands" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -419,7 +419,7 @@
       <selection activeCell="A25" sqref="A25:X48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1">
@@ -3986,7 +3986,7 @@
       <selection activeCell="A25" sqref="A25:X48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1">
@@ -7553,7 +7553,7 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1">
